--- a/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_main-dishes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_main-dishes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656471-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Gluten-Free Main Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656474-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5r0Nxi4-R_-JC5bGMADxWKacd3k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2083257-52518569572f4d76a2b59a45159b1b8d.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228652/pepperoni-meatza/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pepperoni Meatza</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n1 -12x17-inch pizza"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon salt\n\n\n1 teaspoon caraway seeds (Optional)\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon garlic salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon red pepper flakes, or to taste (Optional)\n\n\n2 pounds extra lean ground beef\n\n\n2  eggs\n\n\n½ cup grated Parmesan cheese\n\n\n1 (12 ounce) package shredded mozzarella cheese\n\n\n1 cup tomato sauce\n\n\n1 (3.5 ounce) package sliced pepperoni, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon salt\n\n\n1 teaspoon caraway seeds (Optional)\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon garlic salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon red pepper flakes, or to taste (Optional)\n\n\n2 pounds extra lean ground beef\n\n\n2  eggs\n\n\n½ cup grated Parmesan cheese\n\n\n1 (12 ounce) package shredded mozzarella cheese\n\n\n1 cup tomato sauce\n\n\n1 (3.5 ounce) package sliced pepperoni, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Mix together salt, caraway seeds, oregano, garlic salt, ground black pepper, and crushed red pepper flakes in a small bowl."},{"recipe_directions":"Mix ground beef and eggs in a mixing bowl until thoroughly incorporated. Add Parmesan cheese and seasoning mixture to beef; combine. Press ground beef mixture into a 12x17-inch pan, spread out evenly."},{"recipe_directions":"Bake in the preheated oven until meat is no longer pink, about 10 minutes. Drain grease."},{"recipe_directions":"Set oven rack about 6 inches from the heat source and turn on the oven's broiler."},{"recipe_directions":"Sprinkle 1/3 of the mozzarella cheese over baked meat, followed by tomato sauce in an even layer. Sprinkle another 1/3 of the mozzarella cheese over the sauce and top with slices of pepperoni. Sprinkle remaining mozzarella cheese over pizza."},{"recipe_directions":"Broil until cheese is melted, bubbling, and lightly browned, 3 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pizza Recipes"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"506\nCalories\n\n\n28g \nFat\n\n\n5g \nCarbs\n\n\n57g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656477-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/q3vUtcj0JiwXDfnUUuLD8hWBT5Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/832291-porcupines-LYNNINMA-1x1-1-4bccbcc5b5c6414894ae97093e8b6a09.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26642/porcupines/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Porcupines</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n½ cup uncooked white rice\n\n\n½ cup water\n\n\n½ cup chopped onion\n\n\n1 teaspoon salt\n\n\n½ teaspoon celery salt\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground black pepper\n\n\n1 (15 ounce) can tomato sauce\n\n\n1 cup water"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n½ cup uncooked white rice\n\n\n½ cup water\n\n\n½ cup chopped onion\n\n\n1 teaspoon salt\n\n\n½ teaspoon celery salt\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground black pepper\n\n\n1 (15 ounce) can tomato sauce\n\n\n1 cup water'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the ground beef, rice, 1/2 cup of water and onion. Blend in salt, celery salt, garlic powder and pepper. Mix well. Shape into 1 1/2 inch balls."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). In a large skillet over medium heat, brown the meatballs; drain fat."},{"recipe_directions":"In an 11x7 inch baking dish, combine the tomato sauce and 1 cup of water. Place the browned meatballs into the tomato sauce, turning to coat well."},{"recipe_directions":"Cover and bake in a preheated oven for 45 minutes. Uncover, and cook for an additional 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"275\nCalories\n\n\n13g \nFat\n\n\n21g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656483-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nTa630AcDYK3kReochMxRhlZaCE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/850679-288dd0d48a2e4a45b713a5da56a90331.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/51997/maple-garlic-marinated-pork-tenderloin/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Maple-Garlic Marinated Pork Tenderloin</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 30 mins\n\n\nServings:\n6 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons Dijon mustard\n\n\n1 teaspoon sesame oil\n\n\n3 cloves garlic, minced\n\n\n  fresh ground black pepper to taste\n\n\n1 cup maple syrup\n\n\n1 ½ pounds pork tenderloin"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons Dijon mustard\n\n\n1 teaspoon sesame oil\n\n\n3 cloves garlic, minced\n\n\n  fresh ground black pepper to taste\n\n\n1 cup maple syrup\n\n\n1 ½ pounds pork tenderloin'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine mustard, sesame oil, garlic, pepper, and maple syrup. Place pork in a shallow dish and coat thoroughly with marinade. Cover, then chill in the refrigerator at least eight hours, or overnight."},{"recipe_directions":"Preheat grill for medium-low heat."},{"recipe_directions":"Remove pork from marinade, and set aside. Transfer remaining marinade to a small saucepan, and cook on the stove over medium-low heat for 5 minutes."},{"recipe_directions":"Brush grate with oil, and place meat on grate. Grill pork, basting with reserved marinade, for approximately 15 to 25 minutes, or until interior is no longer pink. Avoid using high temperatures as marinade will burn."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Tenderloin Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"288\nCalories\n\n\n5g \nFat\n\n\n37g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656488-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cMWcSB73wsmTb4V4GrQgBFkUrng=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/362221-57c7f59983eb49a8ab377964b728b06f.jpg"
@@ -399,59 +728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/77005/broiled-and-slow-roasted-butterflied-leg-of-lamb-with-cumin-and-garlic/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Broiled and Slow-Roasted Butterflied Leg of Lamb With Cumin and Garlic</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n14 \n\n\nYield:\n12 to 14 - servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n8 cloves garlic, minced\n\n\n2 ½ teaspoons salt\n\n\n1 teaspoon pepper\n\n\n2 tablespoons ground cumin\n\n\n1 tablespoon dried oregano\n\n\n1 (8 pound) leg of lamb, boned and butterflied to a more or less even thickness, 4 3/4 to 5 1/2 pounds trimmed weight, fell and most fat removed\n\n\n1  lemon, juiced\n\n\n½ cup Minced fresh parsley, cilantro or mint"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n8 cloves garlic, minced\n\n\n2 ½ teaspoons salt\n\n\n1 teaspoon pepper\n\n\n2 tablespoons ground cumin\n\n\n1 tablespoon dried oregano\n\n\n1 (8 pound) leg of lamb, boned and butterflied to a more or less even thickness, 4 3/4 to 5 1/2 pounds trimmed weight, fell and most fat removed\n\n\n1  lemon, juiced\n\n\n½ cup Minced fresh parsley, cilantro or mint'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix oil, garlic, salt, pepper, cumin and oregano; spread paste on both sides of the lamb and let stand for an hour until meat comes to room temperature."},{"recipe_directions":"Adjust oven rack to upper or upper-middle position (depending on lamb's thickness) and preheat broiler on high for at least 10 minutes."},{"recipe_directions":"Place lamb, cut side up, on a large wire rack set over a foil-lined roasting pan. Broil, moving pan so entire surface browns evenly, about 8 minutes. Turn lamb over; continue to broil until well browned on the other side, about 8 minutes longer. Turn off broiler, remove lamb from oven and let rest for 10 minutes."},{"recipe_directions":"Heat oven to 325 degrees. Stick a meat thermometer into the thickest portion of the lamb; return it to the oven. Roast for a total of 50 minutes to 1 hour, until thermometer registers a rosy-pink 140 degrees. Check lamb several times after 30 minutes. If lamb gets done sooner, simply turn down oven to 170 degrees until ready to serve."},{"recipe_directions":"As soon as lamb comes out of the oven, squeeze on lemon juice and sprinkle with fresh herbs. Carve, slicing across the grain when possible. Arrange on a platter, drizzle with accumulated juices, and serve."},{"recipe_directions":"Copyright 2004 USA WEEKEND and columnist Pam Anderson. All rights reserved."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Lamb"},{"recipe_tags":"Leg"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"336\nCalories\n\n\n23g \nFat\n\n\n2g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656493-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TGQK1cjU_ezw4UvPCwFSgZNdsao=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4387239-6ce6197c146a4f0f836ed474511ec0ab.jpg"
@@ -464,59 +789,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238614/italian-style-stuffed-peppers/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Italian-Style Stuffed Peppers</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n4 \n\n\nYield:\n8 stuffed pepper halves"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large green bell peppers, cut in half lengthwise, seeds removed\n\n\n1 pound ground beef sirloin\n\n\n4 ounces ground Italian sausage\n\n\n1 cup cooked brown rice\n\n\n1 teaspoon dried Italian seasoning\n\n\n½ teaspoon kosher salt\n\n\n¼ teaspoon freshly ground black pepper\n\n\n1 clove garlic, minced\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n1  large egg, lightly beaten\n\n\n1 (24 ounce) jar Classico® Tomato and Basil Pasta Sauce, divided\n\n\n2 cups shredded part-skim mozzarella cheese\n\n\n  Fresh chopped parsley"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large green bell peppers, cut in half lengthwise, seeds removed\n\n\n1 pound ground beef sirloin\n\n\n4 ounces ground Italian sausage\n\n\n1 cup cooked brown rice\n\n\n1 teaspoon dried Italian seasoning\n\n\n½ teaspoon kosher salt\n\n\n¼ teaspoon freshly ground black pepper\n\n\n1 clove garlic, minced\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n1  large egg, lightly beaten\n\n\n1 (24 ounce) jar Classico® Tomato and Basil Pasta Sauce, divided\n\n\n2 cups shredded part-skim mozzarella cheese\n\n\n  Fresh chopped parsley'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Spray a roasting pan (large enough to accommodate 8 pepper halves in a single layer) with cooking spray."},{"recipe_directions":"Combine the ground sirloin, Italian sausage, brown rice, Italian seasonings, salt, pepper, garlic, Parmesan cheese, egg, and 1/2 cup Classico® Tomato &amp; Basil sauce in a large bowl. Mix until combined."},{"recipe_directions":"Divide meat mixture evenly among the green pepper halves; press to compress slightly. Arrange halves in prepared pan. Spoon the remaining Classico® Tomato &amp; Basil sauce onto the tops of the meat and peppers. Cover tightly with foil."},{"recipe_directions":"Bake until the peppers are soft and internal temperature of the meat reaches 165 degrees F, about 1 1/2 hours."},{"recipe_directions":"Remove from oven. Remove foil and top each pepper with shredded cheese."},{"recipe_directions":"Turn oven to broil. Place peppers, uncovered under the broiler. Broil until the cheese is melted and bubbly, about 5 minutes. Sprinkle with parsley."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Dinner"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"638\nCalories\n\n\n33g \nFat\n\n\n37g \nCarbs\n\n\n48g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656498-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NlPPvojLL0bpDFxrrNen_rkP1l0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/1001893-very-moist-and-flavorful-roast-turkey-bigcountry-4x3-1-396a9a559c0d4c5bb228c0e5943983cb.jpg"
@@ -530,59 +851,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230121/very-moist-and-flavorful-roast-turkey/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Very Moist and Flavorful Roast Turkey</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 30 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n12 \n\n\nYield:\n1 whole turkey"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup cold butter\n\n\n1 (12 pound) whole turkey, neck and giblets removed\n\n\n1 tablespoon vegetable oil\n\n\n2  Granny Smith apples - cored, peeled, and cut into 8 wedges each\n\n\n1 large onion, cut into 8 wedges\n\n\n½ whole head garlic, separated into cloves and peeled\n\n\n1 pound celery, cut into 2-inch lengths\n\n\n1 tablespoon poultry seasoning"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup cold butter\n\n\n1 (12 pound) whole turkey, neck and giblets removed\n\n\n1 tablespoon vegetable oil\n\n\n2  Granny Smith apples - cored, peeled, and cut into 8 wedges each\n\n\n1 large onion, cut into 8 wedges\n\n\n½ whole head garlic, separated into cloves and peeled\n\n\n1 pound celery, cut into 2-inch lengths\n\n\n1 tablespoon poultry seasoning'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Cut butter into 1-tablespoon pieces, quarter the pieces, and refrigerate butter until needed."},{"recipe_directions":"Use your fingers to loosen the skin over the turkey breast and thighs. Cut a hole in the turkey skin between tail and body (to affix legs); cut a hole on each side of the turkey beneath each wing (to affix wings). Rub the entire skin with vegetable oil."},{"recipe_directions":"Toss apple and onion wedges, garlic cloves, and celery in a large bowl until combined; sprinkle poultry seasoning over the apple mixture and toss again to coat. Stuff the body and neck cavities with the apple mixture. Insert each wing tip into the hole under the wing to secure wings; insert both legs into hole near tail to secure legs."},{"recipe_directions":"Place turkey onto a rack and set in a roasting pan. Insert cold butter pieces under the loosened skin, distributing the butter as evenly as possible."},{"recipe_directions":"Roast the turkey in the preheated oven until an instant-read meat thermometer inserted into the thickest part of a thigh, not touching bone, reads 160 degrees F (70 degrees C), about 3 1/2 hours. Check for doneness after 3 hours."},{"recipe_directions":"Remove roasting pan containing turkey from oven and cover with aluminum foil, lightly pressing the foil directly onto the bird. Let the turkey rest for 40 minutes before carving."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Holidays and Events Recipes"},{"recipe_tags":"Thanksgiving"},{"recipe_tags":"Turkey"},{"recipe_tags":"Roasted"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"774\nCalories\n\n\n40g \nFat\n\n\n6g \nCarbs\n\n\n91g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656503-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3lLGeIkK1-e9BNpGbfrFwjA4lA0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2930576-7a9be221de1c46faabfc4a50da88eb37.jpg"
@@ -595,59 +912,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34689/chickpea-curry/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Chickpea Curry</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n2  onions, minced\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons fresh ginger root, finely chopped\n\n\n6  whole cloves\n\n\n2 (2 inch) sticks cinnamon, crushed\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n  salt\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon ground turmeric\n\n\n2 (15 ounce) cans garbanzo beans\n\n\n1 cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n2  onions, minced\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons fresh ginger root, finely chopped\n\n\n6  whole cloves\n\n\n2 (2 inch) sticks cinnamon, crushed\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n  salt\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon ground turmeric\n\n\n2 (15 ounce) cans garbanzo beans\n\n\n1 cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large frying pan over medium heat, and fry onions until tender."},{"recipe_directions":"Stir in garlic, ginger, cloves, cinnamon, cumin, coriander, salt, cayenne, and turmeric. Cook for 1 minute over medium heat, stirring constantly. Mix in garbanzo beans and their liquid. Continue to cook and stir until all ingredients are well blended and heated through. Remove from heat. Stir in cilantro just before serving, reserving 1 tablespoon for garnish."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"135\nCalories\n\n\n5g \nFat\n\n\n21g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656509-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1JmnPhqOZ_r6T--HA0wnKrd-wZk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/18978-bbq-pork-for-sandwiches-cookinmama-1x1-1-244e3dba9c604f57971c6c39a71a7b1e.jpg"
@@ -661,59 +974,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21174/bbq-pork-for-sandwiches/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>BBQ Pork for Sandwiches</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 4 hrs 30 mins\n\n\nTotal Time:\n 4 hrs 45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) can beef broth\n\n\n3 pounds boneless pork ribs\n\n\n1 (18 ounce) bottle barbeque sauce"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can beef broth\n\n\n3 pounds boneless pork ribs\n\n\n1 (18 ounce) bottle barbeque sauce'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour can of beef broth into slow cooker, and add boneless pork ribs. Cook on High heat for 4 hours, or until meat shreds easily. Remove meat, and shred with two forks. It will seem that it's not working right away, but it will."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Transfer the shredded pork to a Dutch oven or iron skillet, and stir in barbeque sauce."},{"recipe_directions":"Bake in the preheated oven for 30 minutes, or until heated through."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pork"},{"recipe_tags":"Pulled Pork"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"355\nCalories\n\n\n18g \nFat\n\n\n15g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656513-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mfSiQHfZeXrenzNjJZZVNzmOBIs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/4546075-spicy-chicken-noodles-Chef-John-1x1-1-f1d73f027f804fe8aa8c87248c93a3ba.jpg"
@@ -727,59 +1036,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259480/spicy-chicken-noodles/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Spicy Chicken Noodles</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n28 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large carrot, finely sliced or shredded\n\n\n2 cups shredded green cabbage\n\n\n1  red bell pepper, thinly sliced\n\n\n2  jalapeno pepper, seeded and minced\n\n\n½ cup chopped green onions\n\n\n3 cloves garlic, finely crushed"},{"recipe_ingredients":"½ cup chicken broth\n\n\n¼ cup seasoned rice vinegar\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon soy sauce, plus more to taste\n\n\n1 tablespoon ketchup\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon sriracha hot sauce, or more to taste\n\n\n1 teaspoon red pepper flakes"},{"recipe_ingredients":"1 (8 ounce) package dried rice noodles\n\n\n1 pinch salt\n\n\n8 ounces cooked chicken breast, torn into bite-size pieces\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon vegetable oil\n\n\n½ cup freshly chopped cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large carrot, finely sliced or shredded\n\n\n2 cups shredded green cabbage\n\n\n1  red bell pepper, thinly sliced\n\n\n2  jalapeno pepper, seeded and minced\n\n\n½ cup chopped green onions\n\n\n3 cloves garlic, finely crushed'}, {'recipe_ingredients': '½ cup chicken broth\n\n\n¼ cup seasoned rice vinegar\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon soy sauce, plus more to taste\n\n\n1 tablespoon ketchup\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon sriracha hot sauce, or more to taste\n\n\n1 teaspoon red pepper flakes'}, {'recipe_ingredients': '1 (8 ounce) package dried rice noodles\n\n\n1 pinch salt\n\n\n8 ounces cooked chicken breast, torn into bite-size pieces\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon vegetable oil\n\n\n½ cup freshly chopped cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place carrots, cabbage, bell pepper, jalapeno pepper, green onions, and garlic in a mixing bowl."},{"recipe_directions":"Mix chicken broth, rice vinegar, hoisin sauce, soy sauce, ketchup, brown sugar, sriracha sauce, and red pepper flakes together in a separate mixing bowl."},{"recipe_directions":"Place dry rice noodles in a large mixing bowl. Cover with about 6 cups boiling water; add a pinch of salt. Stir from time to time until noodles are soft, about 10 minutes. Drain; cool with cold water. Drain thoroughly. Transfer to a mixing bowl. Add shredded chicken; drizzle with sesame oil. Toss to coat."},{"recipe_directions":"Heat large skillet over high heat; drizzle in vegetable oil. When oil is hot (almost but not quite smoking), add the vegetable mixture. Cook and stir until vegetables are hot and steamy, 1 or 2 minutes. Pour in sauce; cook and stir over high heat until sauce starts to bubble, about 1 minute. Add noodles and chicken. Cook and stir to blend ingredients and ensure ingredients are hot, about 1 minute. Remove from heat. Add chopped cilantro; stir."},{"recipe_directions":"This recipe makes 2 large or 4 small portions."},{"recipe_directions":"This recipe is gluten-free, as long as you use tamari or another wheat-free soy sauce."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Bowls"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"895\nCalories\n\n\n24g \nFat\n\n\n129g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656518-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/i7T-q-3qHVDjIbOnDNSHAf9XgJ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1013628-326f97f29afa46fc82490fe3e1ebd822.jpg"
@@ -792,59 +1097,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16995/charleys-slow-cooker-mexican-style-meat/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Charley's Slow Cooker Mexican Style Meat</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 8 hrs\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 8 hrs 50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (4 pound) chuck roast\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n2 tablespoons olive oil\n\n\n1 large onion, chopped\n\n\n1 ¼ cups diced green chile pepper\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon ground cayenne pepper\n\n\n1 (5 ounce) bottle hot pepper sauce\n\n\n1 teaspoon garlic powder"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (4 pound) chuck roast\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n2 tablespoons olive oil\n\n\n1 large onion, chopped\n\n\n1 ¼ cups diced green chile pepper\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon ground cayenne pepper\n\n\n1 (5 ounce) bottle hot pepper sauce\n\n\n1 teaspoon garlic powder'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Trim the roast of any excess fat, and season with salt and pepper. Heat olive oil in a large skillet over medium-high heat. Place the beef in the hot skillet, and brown it quickly on all sides."},{"recipe_directions":"Transfer the roast to a slow cooker and top it with the chopped onion. Season with chile peppers, chili powder, cayenne pepper, hot pepper sauce, and garlic powder. Add enough water to cover 1/3 of the roast."},{"recipe_directions":"Cover, and cook on High for 6 hours, checking to make sure there is always at least a small amount of liquid in the bottom of the cooker. Reduce heat to Low, and continue cooking for 2 to 4 hours, or until meat is totally tender and falls apart."},{"recipe_directions":"Transfer the roast to a bowl and shred it using two forks (reserve 2 cups of cooking liquid, if desired). Serve in tacos or burritos (see Cook's Note)."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n19g \nFat\n\n\n3g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656523-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E9wvu-2qXmRuAdKjH4Uc57nVSCM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/954692-294eabc8686d4912a5de8832101f662f.jpg"
@@ -857,59 +1158,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268255/gluten-free-italian-meatballs/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Gluten-Free Italian Meatballs</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n18 meatballs"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup milk\n\n\n1  egg\n\n\n1 cup gluten-free Italian bread crumbs\n\n\n1 ½ pounds ground beef\n\n\n¼  onion, minced\n\n\n1 clove garlic, minced (Optional)\n\n\n1 sprig fresh parsley, chopped\n\n\n  cooking spray\n\n\n1 (28 ounce) jar tomato sauce, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup milk\n\n\n1  egg\n\n\n1 cup gluten-free Italian bread crumbs\n\n\n1 ½ pounds ground beef\n\n\n¼  onion, minced\n\n\n1 clove garlic, minced (Optional)\n\n\n1 sprig fresh parsley, chopped\n\n\n  cooking spray\n\n\n1 (28 ounce) jar tomato sauce, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat milk and egg together in a large bowl. Mix bread crumbs in until a paste forms. Add ground beef, onion, garlic, and parsley, and mix with your hands until just combined."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Coat a baking sheet with cooking spray."},{"recipe_directions":"Measure meatballs using an ice cream scoop. Roll balls with dampened hands and place on the prepared baking sheet"},{"recipe_directions":"Bake in the preheated oven until meatballs are no longer pink in the center and an instant-read thermometer inserted into the center should read at least 160 degrees F (70 degrees C), about 30 minutes."},{"recipe_directions":"While meatballs bake, heat tomato sauce in saucepan over medium heat."},{"recipe_directions":"Add baked meatballs to the sauce and simmer, uncovered, for 30 minutes."},{"recipe_directions":"You can use water in place of milk, if you prefer."},{"recipe_directions":"You can bake these meatballs, which I always do because it is easier for me, or if you prefer, you can fry them for a more authentic Italian meatball. I serve these with sauce and grated cheese, sometimes with GF pasta, or just GF rice with tomato sauce. Mangia!"}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"European"},{"recipe_tags":"Italian"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"324\nCalories\n\n\n17g \nFat\n\n\n19g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656527-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/n-OxfgrpupoR3MJ5w8PMc9bx5oI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/16323-polish-stuffed-cabbage-ddmfs-beauty-3x4-5ead78b279bd4270bceac70f81402941.jpg"
@@ -923,59 +1220,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16323/polish-stuffed-cabbage/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Polish Stuffed Cabbage</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 to 8 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium head cabbage\n\n\n  water to cover\n\n\n1 pound ground beef\n\n\n1 cup cooked rice\n\n\n  garlic powder to taste\n\n\n1  egg\n\n\n1 (12 fluid ounce) can tomato juice\n\n\n1 tablespoon vinegar\n\n\n1 tablespoon white sugar\n\n\n  water to cover"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium head cabbage\n\n\n  water to cover\n\n\n1 pound ground beef\n\n\n1 cup cooked rice\n\n\n  garlic powder to taste\n\n\n1  egg\n\n\n1 (12 fluid ounce) can tomato juice\n\n\n1 tablespoon vinegar\n\n\n1 tablespoon white sugar\n\n\n  water to cover'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the head of cabbage in a large pot over high heat and add water to cover. Boil cabbage for 15 minutes, or until it is pliable and soft. Drain and allow to cool completely."},{"recipe_directions":"Remove the hard outer vein from the leaves."},{"recipe_directions":"In a separate large bowl, combine the beef, rice, garlic powder and the egg, mixing well."},{"recipe_directions":"Place a small amount, about the size of your palm, into the center of a cabbage leaf."},{"recipe_directions":"Fold leaf over, tucking in the sides of the leaf to keep meat mixture inside."},{"recipe_directions":"Pile up the filled leaves in a large pot, putting the larger leaves on the bottom. Add the tomato juice, vinegar and sugar and enough water to cover. Simmer over medium low heat for about 60 minutes. (Note: Keep an eye on them, making sure the bottom of leaves do not burn.)"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Stuffed"},{"recipe_tags":"Stuffed Cabbage"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"331\nCalories\n\n\n21g \nFat\n\n\n20g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656531-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/K5F3_TcOH2z5KPk5y5wtut5cIhQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3569039-366842e08c184464b21a720dfe3ac52d.jpg"
@@ -988,59 +1281,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246872/homemade-gluten-free-gnocchi/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Homemade Gluten-Free Gnocchi</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds potatoes\n\n\n1  egg at room temperature, lightly beaten\n\n\n⅓ cup potato starch\n\n\n1 tablespoon sweet rice flour\n\n\n½ teaspoon fine salt\n\n\n2 tablespoons rice flour, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds potatoes\n\n\n1  egg at room temperature, lightly beaten\n\n\n⅓ cup potato starch\n\n\n1 tablespoon sweet rice flour\n\n\n½ teaspoon fine salt\n\n\n2 tablespoons rice flour, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Prick each potato a few times with a fork and place on a baking sheet."},{"recipe_directions":"Bake potatoes in the preheated oven until tender when pierced with a knife, about 50 minutes. Cool until easily handled, about 10 minutes."},{"recipe_directions":"Peel potatoes and pass through a ricer or food mill into a large bowl. Make a well in the center and pour in egg; mix well."},{"recipe_directions":"Whisk potato starch, sweet rice flour, and salt together in a bowl. Sprinkle over potato mixture; stir until a soft dough has formed. Cut dough into 4 equal parts with a knife or pastry cutter."},{"recipe_directions":"Dust the work surface with rice flour to keep dough from sticking. Roll out 1 piece of dough into a rope about 1 inch in diameter. Cut into 1-inch gnocchi. Gently roll each one with the back of a fork to create ridges. Repeat with remaining dough."},{"recipe_directions":"Shake off any excess rice flour and let gnocchi rest, about 5 minutes."},{"recipe_directions":"Bring a large pot of salted water to a boil. Add gnocchi in batches and cook, without stirring, until they float to the top, 1 to 2 minutes. Remove with a slotted spoon."},{"recipe_directions":"Substitute arrowroot flour for the sweet rice flour if desired."},{"recipe_directions":"If not cooking right away, roll the gnocchi in rice flour and arrange on a baking sheet about 1/4 inch apart. Let rest, about 5 minutes. Refrigerate for up to 24 hours or freeze up to 6 months. (Once cooled or frozen, the gnocchi won't stick together so you can transfer them from the baking sheet to freezer bags.)"},{"recipe_directions":"Frozen gnocchi will take about 3 minutes to cook. Thawed, they can be added directly to your favorite sauce that has already been heated. The texture of cooled or frozen gnocchi may differ from fresh."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n1g \nFat\n\n\n23g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656537-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZrdKyKLHF2INf6lNXvbkF2nxrj4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1029891-5b48c665688d425c9665133a4f887553.jpg"
@@ -1053,59 +1342,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16079/fereni-starch-pudding/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Fereni Starch Pudding</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup cornstarch\n\n\n2 cups milk, divided\n\n\n½ cup ground almonds\n\n\n6  whole cardamom seeds\n\n\n¼ cup white sugar, or to taste\n\n\n1/4 teaspoon rosewater, or to taste\n\n\n¼ cup blanched slivered almonds"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup cornstarch\n\n\n2 cups milk, divided\n\n\n½ cup ground almonds\n\n\n6  whole cardamom seeds\n\n\n¼ cup white sugar, or to taste\n\n\n1/4 teaspoon rosewater, or to taste\n\n\n¼ cup blanched slivered almonds'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve cornstarch in 1 cup milk in a small bowl; set aside."},{"recipe_directions":"Combine remaining 1 cup milk, ground almonds, and cardamom in a medium pot; bring to a boil. Reduce heat to medium and whisk in cornstarch mixture. Mix in sugar and rosewater. Allow pudding to boil, stirring constantly, for about 3 minutes."},{"recipe_directions":"Remove cardamom seeds and pour pudding into serving dishes. Garnish with slivered almonds and serve warm or cold."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n10g \nFat\n\n\n29g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656542-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k-y5DsofXyjRSHgC62MZCJkxbRs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/BarbequedRibs.4x3-e08c0b0f20db4251a83636d528af9034.jpg"
@@ -1119,59 +1404,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19856/barbequed-ribs/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Barbequed Ribs</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 3 hrs\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 11 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 pounds baby back pork ribs\n\n\n4 cloves garlic, sliced\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon paprika\n\n\n2 teaspoons salt\n\n\n2 teaspoons ground black pepper\n\n\n2 teaspoons chili powder\n\n\n2 teaspoons ground cumin\n\n\n½ cup dark brown sugar\n\n\n½ cup cider vinegar\n\n\n½ cup ketchup\n\n\n¼ cup chili sauce\n\n\n¼ cup Worcestershire sauce\n\n\n1 tablespoon lemon juice\n\n\n2 tablespoons onion, chopped\n\n\n½ teaspoon dry mustard\n\n\n1 clove crushed garlic"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 pounds baby back pork ribs\n\n\n4 cloves garlic, sliced\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon paprika\n\n\n2 teaspoons salt\n\n\n2 teaspoons ground black pepper\n\n\n2 teaspoons chili powder\n\n\n2 teaspoons ground cumin\n\n\n½ cup dark brown sugar\n\n\n½ cup cider vinegar\n\n\n½ cup ketchup\n\n\n¼ cup chili sauce\n\n\n¼ cup Worcestershire sauce\n\n\n1 tablespoon lemon juice\n\n\n2 tablespoons onion, chopped\n\n\n½ teaspoon dry mustard\n\n\n1 clove crushed garlic'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 300 degrees F (150 degrees C). Place ribs on a rack in a shallow roasting pan. Scatter 4 cloves of sliced garlic over ribs. Cover, and bake for 2 1/2 hours. Cool slightly."},{"recipe_directions":"In a small bowl, mix together white sugar, paprika, salt, black pepper, chili powder, and ground cumin. Rub spices over cooled ribs. Cover, and refrigerate overnight."},{"recipe_directions":"In a small saucepan, mix together brown sugar, cider vinegar, ketchup, chili sauce, Worcestershire sauce, lemon juice, onion, dry mustard, and 1 clove garlic. Simmer over medium-low heat, uncovered, for 1 hour. Reserve a small amount for basting; the remainder is a dipping sauce."},{"recipe_directions":"Preheat grill for medium heat."},{"recipe_directions":"Place ribs on grill. Grill, covered, for about 12 minutes, basting with the reserved sauce, until nicely browned and glazed. Serve with remaining sauce for dipping."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Rib Recipes"},{"recipe_tags":"Baby Back Ribs"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"588\nCalories\n\n\n38g \nFat\n\n\n19g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656549-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GmAtoa-DGQwNTGdPk0tOKMAPask=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/578209-2795f18cbbbc4609bb2aa38166299b81.jpg"
@@ -1184,59 +1465,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57947/authentic-huevos-rancheros/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Easy Huevos Rancheros</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil, or more if needed\n\n\n4 (6 inch) corn tortillas\n\n\n1 cup refried beans with green chiles\n\n\n1 teaspoon butter\n\n\n4 large eggs\n\n\n1 cup shredded Cheddar cheese\n\n\n8 slices bacon, cooked and crumbled\n\n\n½ cup salsa (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil, or more if needed\n\n\n4 (6 inch) corn tortillas\n\n\n1 cup refried beans with green chiles\n\n\n1 teaspoon butter\n\n\n4 large eggs\n\n\n1 cup shredded Cheddar cheese\n\n\n8 slices bacon, cooked and crumbled\n\n\n½ cup salsa (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Fry two tortillas at a time in the hot skillet until firm, but not crisp, about 30 seconds per side. Drain on paper towels."},{"recipe_directions":"Reduce the heat to medium, and add more oil to the skillet if dry. Crack in eggs and cook until the outer edges become opaque, about 1 minute. Cover, reduce the heat to low, and cook until the whites are completely set, about 4 minutes."},{"recipe_directions":"While the eggs are cooking, combine refried beans and butter in a microwave-safe dish. Cover and microwave on high in 1-minute intervals until hot."},{"recipe_directions":"Place tortillas onto plates and spread with a layer of hot refried beans. Top with Cheddar, a fried egg, crumbled bacon, and salsa."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"494\nCalories\n\n\n33g \nFat\n\n\n24g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656559-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lDxWyZxcQuMmOOpFVJabHmT2-t4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1397542-aa179008e07c46aea54962ce35a0e2f6.jpg"
@@ -1249,59 +1526,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17323/mushroom-risotto/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Mushroom Risotto</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n3 small onions, finely chopped\n\n\n1 clove garlic, crushed\n\n\n1 teaspoon minced fresh parsley\n\n\n1 teaspoon minced celery\n\n\n  salt and pepper to taste\n\n\n1 ½ cups sliced fresh mushrooms\n\n\n1 cup whole milk\n\n\n¼ cup heavy cream\n\n\n1 cup rice\n\n\n5 cups vegetable stock\n\n\n1 teaspoon butter\n\n\n1 cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n3 small onions, finely chopped\n\n\n1 clove garlic, crushed\n\n\n1 teaspoon minced fresh parsley\n\n\n1 teaspoon minced celery\n\n\n  salt and pepper to taste\n\n\n1 ½ cups sliced fresh mushrooms\n\n\n1 cup whole milk\n\n\n¼ cup heavy cream\n\n\n1 cup rice\n\n\n5 cups vegetable stock\n\n\n1 teaspoon butter\n\n\n1 cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Saute the onion and garlic in the olive oil until onion is tender and garlic is lightly browned. Remove garlic, and stir in the parsley, celery, salt, and pepper. Cook until celery is tender, then add the mushrooms. Reduce heat to low, and continue cooking until the mushrooms are soft."},{"recipe_directions":"Pour the milk and cream into the skillet, and stir in the rice. Heat to a simmer. Stir the vegetable stock into the rice one cup at a time, until it is absorbed."},{"recipe_directions":"When the rice has finished cooking, stir in the butter and Parmesan cheese, and remove from heat. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Risotto Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"439\nCalories\n\n\n20g \nFat\n\n\n49g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656568-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DFmSrGX_LFKrGqAdrig-V1hy8Nc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(994x830:996x832):format(webp)/33129-corned-beef-hash-cindy-mendenhall-rosenberg-3389295-4x3-8462603bb3814f8c92b38c07981d9216.jpg"
@@ -1315,59 +1588,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33129/corned-beef-hash/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Corned Beef Hash</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large potatoes, peeled and diced\n\n\n1 (12 ounce) can corned beef, cut into chunks\n\n\n1  medium onion, chopped\n\n\n1 cup beef broth"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large potatoes, peeled and diced\n\n\n1 (12 ounce) can corned beef, cut into chunks\n\n\n1  medium onion, chopped\n\n\n1 cup beef broth'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine potatoes, corned beef, onion, and broth in a large, deep skillet over medium heat. Cover and simmer until potatoes are soft enough to mash and liquid is almost gone. Mix well and serve hot."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n9g \nFat\n\n\n66g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656577-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/feAy0x1y-I67a6ehpIjAO5y3b2A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1014681-ad072bcc198c4dfaaab68a64ea7d5513.jpg"
@@ -1380,59 +1649,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14044/quick-and-easy-stuffed-peppers/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Quick and Easy Stuffed Peppers</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large red bell peppers, halved and seeded\n\n\n1 (8 ounce) can stewed tomatoes, with liquid\n\n\n⅓ cup quick-cooking brown rice\n\n\n2 tablespoons hot water\n\n\n½ (15 ounce) can kidney beans, drained and rinsed\n\n\n½ cup frozen corn kernels, thawed and drained\n\n\n2  green onions, thinly sliced\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n½ cup shredded mozzarella cheese\n\n\n1 tablespoon grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large red bell peppers, halved and seeded\n\n\n1 (8 ounce) can stewed tomatoes, with liquid\n\n\n⅓ cup quick-cooking brown rice\n\n\n2 tablespoons hot water\n\n\n½ (15 ounce) can kidney beans, drained and rinsed\n\n\n½ cup frozen corn kernels, thawed and drained\n\n\n2  green onions, thinly sliced\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n½ cup shredded mozzarella cheese\n\n\n1 tablespoon grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange pepper halves in a 9-inch square glass baking dish. Cover the baking dish with plastic wrap and poke a few holes for vents. Cook in the microwave until tender, about 4 minutes. Set aside."},{"recipe_directions":"Mix together tomatoes with liquid, rice, and hot water in a medium microwave-safe bowl. Cover the bowl with plastic wrap. Cook in the microwave until rice is tender, about 4 minutes."},{"recipe_directions":"Remove plastic wrap carefully. Stir in kidney beans, corn, green onions, and red pepper flakes. Re-cover the bowl with plastic wrap. Cook in the microwave until heated through, about 3 minutes."},{"recipe_directions":"Spoon hot tomato mixture evenly into pepper halves. Cover the baking dish with plastic wrap and poke holes for vents. Cook in the microwave for 4 minutes."},{"recipe_directions":"Remove plastic wrap. Sprinkle stuffed peppers with mozzarella and Parmesan cheese. Allow to stand until cheese is melted, 1 to 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Stuffed"},{"recipe_tags":"Stuffed Bell Pepper Recipes"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n4g \nFat\n\n\n28g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656581-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RII8IhzlthF57l6L3zy7TlSv0sQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4580465-stovies-Jody-4x3-1-d59d9f87b3ad45d380bace81988bd318.jpg"
@@ -1446,59 +1711,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35856/stovies/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Stovies</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large baking potatoes, peeled and cubed\n\n\n1 cup milk\n\n\n1 tablespoon butter\n\n\n1 large onion, roughly chopped\n\n\n1 (12 ounce) can corned beef, cut into chunks\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large baking potatoes, peeled and cubed\n\n\n1 cup milk\n\n\n1 tablespoon butter\n\n\n1 large onion, roughly chopped\n\n\n1 (12 ounce) can corned beef, cut into chunks\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan, combine potatoes and milk. Bring to a boil, reduce heat, and simmer until potatoes are tender, about 30 minutes."},{"recipe_directions":"While potatoes are simmering, melt butter in a skillet over medium high heat. Saute onions until soft and translucent."},{"recipe_directions":"When potatoes are soft, mix in sauteed onions and corned beef. Cook an additional 10 minutes, or until heated through. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"UK and Ireland"},{"recipe_tags":"Scottish"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"707\nCalories\n\n\n17g \nFat\n\n\n103g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656585-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tp8D8s3n70a9rQq75CHjoK-TmpQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(699x0:701x2):format(webp)/6106185-feta-eggs-Suada-Fteja-1x1-1-f57533f20b744adfbddd9aec3016101b.jpg"
@@ -1512,59 +1773,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50648/feta-eggs/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Feta Eggs</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n¼ cup chopped onion\n\n\n4  eggs, beaten\n\n\n¼ cup chopped tomatoes\n\n\n2 tablespoons crumbled feta cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n¼ cup chopped onion\n\n\n4  eggs, beaten\n\n\n¼ cup chopped tomatoes\n\n\n2 tablespoons crumbled feta cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a skillet over medium heat. Saute onions until translucent. Pour in eggs. Cook, stirring occasionally to scramble. When eggs appear almost done, stir in chopped tomatoes and feta cheese, and season with salt and pepper. Cook until cheese is melted."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n9g \nFat\n\n\n2g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656589-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/q2JvsICuiC6I9xtk4Mx4_9FF-Rw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/74037-lamb-chops-with-balsamic-reduction-DDMFS-step-4x3-158-cc81d0fe528c4b07be2d7031e152f70b.jpg"
@@ -1578,59 +1835,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/74037/lamb-chops-with-balsamic-reduction/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Lamb Chops with Balsamic Reduction</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ teaspoon dried rosemary\n\n\n½ teaspoon dried thyme\n\n\n¼ teaspoon dried basil\n\n\n  salt and pepper to taste\n\n\n4  lamb chops (3/4 inch thick)\n\n\n1 tablespoon olive oil\n\n\n¼ cup minced shallots\n\n\n⅓ cup aged balsamic vinegar\n\n\n¾ cup chicken broth\n\n\n1 tablespoon butter"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ teaspoon dried rosemary\n\n\n½ teaspoon dried thyme\n\n\n¼ teaspoon dried basil\n\n\n  salt and pepper to taste\n\n\n4  lamb chops (3/4 inch thick)\n\n\n1 tablespoon olive oil\n\n\n¼ cup minced shallots\n\n\n⅓ cup aged balsamic vinegar\n\n\n¾ cup chicken broth\n\n\n1 tablespoon butter'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Mix rosemary, thyme, basil, salt, and pepper together in a small bowl; rub onto chops, coating both sides. Place chops onto a plate, cover, and let sit for 15 minutes."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Cook chops in the hot skillet until no longer pink in the center, about 3 1/2 minutes per side for medium-rare. An instant-read thermometer inserted into the center should read 145 degrees F (63 degrees C). Transfer to a serving platter and keep warm."},{"recipe_directions":"Add shallots to the skillet; cook and stir until just browned, 2 to 3 minutes. Pour vinegar into the pan and bring to a boil while scraping the browned bits of food off the bottom of the pan with a wooden spoon. Add broth; cook and stir until sauce has reduced by half, about 5 minutes."},{"recipe_directions":"Remove sauce from the heat and stir in butter until melted."},{"recipe_directions":"Serve over chops. Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Lamb"},{"recipe_tags":"Chops"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"255\nCalories\n\n\n19g \nFat\n\n\n5g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656592-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dvuBclsTjzVdLf_syuZZ5zYYQs0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4269078-d47f83a5331b47c9b938288d6ceebcfc.jpg"
@@ -1643,59 +1896,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256348/quick-and-easy-baked-fish-fillet/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Quick and Easy Baked Fish Fillet</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound flounder fillets\n\n\n½ teaspoon salt\n\n\n  ground black pepper to taste\n\n\n1 tablespoon lemon juice\n\n\n2 teaspoons melted butter\n\n\n1 teaspoon minced onion"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound flounder fillets\n\n\n½ teaspoon salt\n\n\n  ground black pepper to taste\n\n\n1 tablespoon lemon juice\n\n\n2 teaspoons melted butter\n\n\n1 teaspoon minced onion'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place flounder in a baking dish; season with salt and pepper. Mix together lemon juice, melted butter, and onion in a small bowl; pour over flounder."},{"recipe_directions":"Bake in the preheated oven until fish is opaque and flakes easily with a fork, 25 to 30 minutes."},{"recipe_directions":"You can use any white fish instead of flounder."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"165\nCalories\n\n\n5g \nFat\n\n\n1g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656595-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UWilMAJfDkhPTxU24PFgsx5cmAs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x999:1001x1001):format(webp)/245362-Chef-Johns-Shakshukai-DDMFS-1x1-1-9b8332eb939f40dea0c7739c5d1c44c4.jpg"
@@ -1709,59 +1958,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245362/chef-johns-shakshuka/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Chef John's Shakshuka</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 large onion, diced\n\n\n½ cup sliced fresh mushrooms\n\n\n1 teaspoon salt, plus more to taste \n\n\n1 cup diced red bell pepper\n\n\n1 jalapeño pepper, seeded and sliced\n\n\n1 teaspoon cumin\n\n\n½ teaspoon paprika\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon freshly ground black pepper, plus more to taste \n\n\n¼ teaspoon cayenne pepper\n\n\n1 (28 ounce) can crushed San Marzano tomatoes, or other high-quality plum tomatoes\n\n\n½ cup water, or more as needed\n\n\n6  large eggs\n\n\n2 tablespoons crumbled feta cheese\n\n\n2 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 large onion, diced\n\n\n½ cup sliced fresh mushrooms\n\n\n1 teaspoon salt, plus more to taste \n\n\n1 cup diced red bell pepper\n\n\n1 jalapeño pepper, seeded and sliced\n\n\n1 teaspoon cumin\n\n\n½ teaspoon paprika\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon freshly ground black pepper, plus more to taste \n\n\n¼ teaspoon cayenne pepper\n\n\n1 (28 ounce) can crushed San Marzano tomatoes, or other high-quality plum tomatoes\n\n\n½ cup water, or more as needed\n\n\n6  large eggs\n\n\n2 tablespoons crumbled feta cheese\n\n\n2 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large, heavy skillet over medium-high heat. Add onion and mushrooms; season with salt. Cook and stir until mushrooms release all of their liquid and start to brown, about 10 minutes."},{"recipe_directions":"Add bell pepper and jalapeño pepper. Cook and stir until peppers begin to soften, about 5 minutes. Season with cumin, paprika, turmeric, black pepper, and cayenne. Cook and stir to \"wake up\" the flavors, about 1 minute."},{"recipe_directions":"Stir in tomatoes and water. Reduce heat to medium. Simmer uncovered, stirring occasionally, until vegetables are softened and sweet, 15 to 20 minutes. Add more water if sauce becomes too thick."},{"recipe_directions":"Use a large spoon to make a depression in sauce for each egg. Crack an egg into a small ramekin and slide gently into an indentation; repeat with remaining eggs. Season eggs with salt and pepper. Cover and cook until eggs reach desired doneness."},{"recipe_directions":"Top with feta cheese and parsley to serve."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"185\nCalories\n\n\n11g \nFat\n\n\n15g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656598-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NVmp-t7FrgeIljjocNJ0x-NfRbE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Simple-Lemon-Herb-Chicken-2000-610e2f2a1e9a4ba292d775e72f3dc888.jpg"
@@ -1775,59 +2020,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9011/simple-lemon-herb-chicken/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Simple Lemon Herb Chicken</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (5 ounce) skinless, boneless chicken breast halves\n\n\n1 medium lemon, juiced, divided\n\n\nsalt and freshly ground black pepper to taste\n\n\n1 tablespoon olive oil\n\n\n1 pinch dried oregano\n\n\n2 sprigs fresh parsley, chopped, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (5 ounce) skinless, boneless chicken breast halves\n\n\n1 medium lemon, juiced, divided\n\n\nsalt and freshly ground black pepper to taste\n\n\n1 tablespoon olive oil\n\n\n1 pinch dried oregano\n\n\n2 sprigs fresh parsley, chopped, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chicken in a bowl; pour 1/2 of the lemon juice over chicken and season with salt."},{"recipe_directions":"Heat olive oil in a medium skillet over medium-low heat. Place chicken into hot oil. Add remaining lemon juice and oregano; season with black pepper. Cook chicken until golden brown and the juices run clear, 5 to 10 minutes per side. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Garnish chicken with parsley to serve."},{"recipe_directions":"Please note the differences in ingredient amounts, yield, and method when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"},{"recipe_tags":"Pan-Fried Chicken"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"265\nCalories\n\n\n11g \nFat\n\n\n2g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656601-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cZxcG10-m_4oC7fkjsTmyKTglq4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/416539-238e9eb5b92d4c21a29d28870005b517.jpg"
@@ -1840,59 +2081,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14646/barbecued-beef/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Barbecued Beef</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 9 hrs\n\n\nTotal Time:\n 9 hrs 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups ketchup\n\n\n¼ cup packed brown sugar\n\n\n¼ cup red wine vinegar\n\n\n2 tablespoons prepared Dijon-style mustard\n\n\n2 tablespoons Worcestershire sauce\n\n\n1 teaspoon liquid smoke flavoring\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon garlic powder\n\n\n1 (4 pound) boneless chuck roast"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups ketchup\n\n\n¼ cup packed brown sugar\n\n\n¼ cup red wine vinegar\n\n\n2 tablespoons prepared Dijon-style mustard\n\n\n2 tablespoons Worcestershire sauce\n\n\n1 teaspoon liquid smoke flavoring\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon garlic powder\n\n\n1 (4 pound) boneless chuck roast'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine ketchup, brown sugar, red wine vinegar, Dijon-style mustard, Worcestershire sauce, and liquid smoke. Stir in salt, pepper, and garlic powder."},{"recipe_directions":"Place chuck roast in a slow cooker. Pour ketchup mixture over chuck roast. Cover and cook on Low for 8 to 10 hours."},{"recipe_directions":"Remove chuck roast from slow cooker, shred with a fork, and return to the slow cooker. Stir meat to evenly coat with sauce. Continue cooking for approximately 1 hour more."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"276\nCalories\n\n\n16g \nFat\n\n\n14g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656606-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r5p23AhbXw9nDv8CQ8fX3w8lgQw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3787920-220ddd0869534603a260ac180146cf38.jpg"
@@ -1905,59 +2142,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14692/caramel-apple-pork-chops/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Caramel Apple Pork Chops</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  (3/4 inch) thick pork chops\n\n\n1 teaspoon vegetable oil\n\n\n2 tablespoons brown sugar\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n  salt and pepper to taste\n\n\n2 tablespoons unsalted butter\n\n\n2 medium tart apples - peeled, cored and sliced\n\n\n3 tablespoons pecans (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  (3/4 inch) thick pork chops\n\n\n1 teaspoon vegetable oil\n\n\n2 tablespoons brown sugar\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n  salt and pepper to taste\n\n\n2 tablespoons unsalted butter\n\n\n2 medium tart apples - peeled, cored and sliced\n\n\n3 tablespoons pecans (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a medium baking dish into the oven and preheat to 175 degrees F (80 degrees C)."},{"recipe_directions":"Heat a large skillet over medium-high heat. Brush chops lightly with oil and place into the hot pan. Cook until no longer pink in the center, 5 to 6 minutes per side. An instant-read thermometer inserted into the center should read 145 degrees F (63 degrees C). Transfer to the baking dish in the preheated oven to keep warm."},{"recipe_directions":"Stir brown sugar, cinnamon, nutmeg, salt, and pepper together in a small bowl."},{"recipe_directions":"Melt butter in a skillet over medium-low heat. Stir in apples and brown sugar mixture. Cover and cook until apples are just tender, about 5 minutes. Leaving the sauce in the skillet, remove apples with a slotted spoon and arrange over pork chops; keep warm in the oven."},{"recipe_directions":"Continue to cook sauce, uncovered, until thickened slightly, 2 to 3 minutes."},{"recipe_directions":"Remove pork chops from the oven. Spoon sauce over top and sprinkle with pecans."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Chop Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"213\nCalories\n\n\n11g \nFat\n\n\n17g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656612-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/chf1e9Mr-GPWr5pKbF1VYVD2cMY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1567x0:1569x2):format(webp)/6534593-1ef42c04c06e4a4582df0395ccc68d91.jpg"
@@ -1970,59 +2203,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/166771/grilled-tilapia-with-mango-salsa/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Grilled Tilapia with Mango Salsa</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup extra-virgin olive oil\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon minced fresh parsley\n\n\n1 clove garlic, minced\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon salt\n\n\n2 (6 ounce) tilapia fillets"},{"recipe_ingredients":"1 large ripe mango, peeled, pitted and diced\n\n\n½  red bell pepper, diced\n\n\n1  jalapeno pepper, seeded and minced\n\n\n2 tablespoons minced red onion\n\n\n1 tablespoon chopped fresh cilantro\n\n\n2 tablespoons lime juice\n\n\n1 tablespoon lemon juice\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup extra-virgin olive oil\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon minced fresh parsley\n\n\n1 clove garlic, minced\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon salt\n\n\n2 (6 ounce) tilapia fillets'}, {'recipe_ingredients': '1 large ripe mango, peeled, pitted and diced\n\n\n½  red bell pepper, diced\n\n\n1  jalapeno pepper, seeded and minced\n\n\n2 tablespoons minced red onion\n\n\n1 tablespoon chopped fresh cilantro\n\n\n2 tablespoons lime juice\n\n\n1 tablespoon lemon juice\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare the fish: Whisk together olive oil, lemon juice, parsley, garlic, basil, black pepper, and salt in a bowl and pour into a resealable plastic bag. Add tilapia fillets, coat with the marinade, squeeze out excess air, and seal the bag. Marinate in the refrigerator for 1 hour."},{"recipe_directions":"Meanwhile, make the salsa: Combine mango, bell pepper, jalapeño pepper, red onion, and cilantro in a bowl. Add lime and lemon juices and toss well. Season to taste with salt and pepper. Refrigerate until ready to serve."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Remove tilapia from the marinade and shake off excess. Discard remaining marinade. Grill fillets until fish is no longer translucent in the center and flakes easily with a fork, 3 to 4 minutes per side, depending on the thickness of the fillets."},{"recipe_directions":"Serve tilapia topped with mango salsa."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"},{"recipe_tags":"Tilapia"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"634\nCalories\n\n\n40g \nFat\n\n\n33g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656617-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/haAGbN53xbbDfNC9CR3a4WlTXQ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4459105-35c1dfbeb6fb4a84ae70e6cd2c5c03fb.jpg"
@@ -2035,59 +2264,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256733/homemade-pureed-sweet-potato-baby-food/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Homemade Puréed Sweet Potato Baby Food</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  sweet potatoes, peeled and halved, or more as desired\n\n\n  water to cover"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  sweet potatoes, peeled and halved, or more as desired\n\n\n  water to cover'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a small saucepan with water; add sweet potatoes. Bring water to a boil and cook sweet potatoes until tender enough to break apart with a fork, 25 to 30 minutes."},{"recipe_directions":"Transfer sweet potatoes to a food processor or an immersion blender cup, reserving the cooking water. Blend sweet potatoes until smooth. Add 1/2 to 3/4 cup cooking water and blend until desired consistency is reached."},{"recipe_directions":"Breast milk or formula can be used instead of cooking water."},{"recipe_directions":"Please consult your pediatrician before starting your baby on solid foods."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"49\nCalories\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656622-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/znZ-znbvDUY1d-eeWd7dXgwP5Fc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9351659-93abc208f942486891863fc6713e1b6b.jpg"
@@ -2100,59 +2325,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/81969/slow-cooker-chile-verde/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Slow Cooker Chile Verde</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 7 hrs 10 mins\n\n\nTotal Time:\n 7 hrs 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n½ cup onion, chopped\n\n\n2 cloves garlic, minced\n\n\n3 pounds boneless pork shoulder, cubed\n\n\n5 (7 ounce) cans green salsa\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (4 ounce) can diced jalapeno peppers"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n½ cup onion, chopped\n\n\n2 cloves garlic, minced\n\n\n3 pounds boneless pork shoulder, cubed\n\n\n5 (7 ounce) cans green salsa\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 (4 ounce) can diced jalapeno peppers'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large skillet or Dutch oven over medium heat. Cook and stir onion and garlic in hot oil until fragrant, about 2 minutes. Add pork and cook, stirring occasionally, until browned on all sides. Transfer pork mixture to a slow cooker and stir in salsa, tomatoes, and jalapeño peppers."},{"recipe_directions":"Cover and cook on High for 3 hours. Reduce to Low and cook, 4 to 5 more hours."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"265\nCalories\n\n\n12g \nFat\n\n\n12g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656626-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ApsgteNdmn1RbjF2NYRG1ZA6Mw8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6375609-spam-and-eggs-Amanda-Bagin-4x3-1-98414cfbba5d4bcb890f1a15d41d8230.jpg"
@@ -2166,59 +2387,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/39747/spam-and-eggs/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Spam and Eggs</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs, beaten\n\n\n1 (12 ounce) container fully cooked luncheon meat (e.g. Spam), cubed\n\n\n2 ounces Cheddar cheese, grated"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs, beaten\n\n\n1 (12 ounce) container fully cooked luncheon meat (e.g. Spam), cubed\n\n\n2 ounces Cheddar cheese, grated'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a nonstick skillet over medium heat. Pour eggs into the skillet, then scatter luncheon meat over top. Cook and stir until eggs are nearly set, 3 to 4 minutes. Sprinkle cheese over top and stir until cheese is melted, 1 to 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"707\nCalories\n\n\n60g \nFat\n\n\n6g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656630-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Y6oTdFan-HYiOhZ85w8Hv21r5vU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2226721-39ef1c7ccd034aeebfc04361f9dc346d.jpg"
@@ -2231,59 +2448,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241980/zucchini-spaghetti/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Zucchini Spaghetti</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 teaspoon ground black pepper\n\n\n1 (15 ounce) can tomato sauce\n\n\n1 (14.5 ounce) can whole peeled tomatoes\n\n\n1 tablespoon salt, or more to taste \n\n\n1 teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon onion powder\n\n\n¼ teaspoon ground thyme\n\n\n¼ teaspoon red pepper flakes\n\n\n1 (6 ounce) can tomato paste\n\n\n3  zucchini, cut into long strands"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 teaspoon ground black pepper\n\n\n1 (15 ounce) can tomato sauce\n\n\n1 (14.5 ounce) can whole peeled tomatoes\n\n\n1 tablespoon salt, or more to taste \n\n\n1 teaspoon dried basil\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon onion powder\n\n\n¼ teaspoon ground thyme\n\n\n¼ teaspoon red pepper flakes\n\n\n1 (6 ounce) can tomato paste\n\n\n3  zucchini, cut into long strands'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir beef and black pepper in the hot skillet until browned and crumbly, 5 to 7 minutes; drain and discard grease."},{"recipe_directions":"Stir tomato sauce, tomatoes, salt, basil, oregano, garlic powder, onion powder, thyme, and red pepper flakes into ground beef; cook and stir until sauce is warmed through, about 2 minutes. Stir in tomato paste."},{"recipe_directions":"Mix zucchini \"noodles\" into sauce, pressing down to fully submerge them; simmer over medium-low heat until zucchini is tender, about 10 minutes."},{"recipe_directions":"For best results of noodle shapes, run the zucchini through a spiralizing tool."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Cookware and Equipment"},{"recipe_tags":"Spiralizer Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"449\nCalories\n\n\n25g \nFat\n\n\n29g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656637-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/loLKcrci071a-dr9Trh_hyMu8nI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/469107-db9d8225bdfa40f49ca68193ece4e363.jpg"
@@ -2296,59 +2509,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13999/quick-black-beans-and-rice/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Quick Black Beans and Rice</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 (15 ounce) can black beans, undrained\n\n\n1 (14.5 ounce) can stewed tomatoes\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon garlic powder\n\n\n1 ½ cups uncooked instant brown rice"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n1 (15 ounce) can black beans, undrained\n\n\n1 (14.5 ounce) can stewed tomatoes\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon garlic powder\n\n\n1 ½ cups uncooked instant brown rice'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil over medium-high in a large saucepan. Add onion; cook and stir until tender. Add beans, tomatoes, oregano, and garlic powder. Bring to a boil."},{"recipe_directions":"Stir in rice. Cover; reduce heat and simmer for 5 minutes. Remove from heat; let stand 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n5g \nFat\n\n\n48g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656644-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mUhJ5_XnplPEr5v6uLdp18_DAfQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/14608-slow-cooker-barbeque-beauty-3x4-77c84d03ee0241589ee5b1272ef93b1e.jpg"
@@ -2362,59 +2571,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14608/slow-cooker-barbeque/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Slow Cooker Barbeque</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 7 hrs\n\n\nTotal Time:\n 7 hrs 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (3 pound) boneless chuck roast\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon onion powder\n\n\n  salt and pepper to taste\n\n\n1 (18 ounce) bottle barbeque sauce"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (3 pound) boneless chuck roast\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon onion powder\n\n\n  salt and pepper to taste\n\n\n1 (18 ounce) bottle barbeque sauce'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place roast into slow cooker. Sprinkle with garlic powder and onion powder. Season with salt and pepper."},{"recipe_directions":"Pour barbeque sauce over meat."},{"recipe_directions":"Cook on Low for 6 to 8 hours."},{"recipe_directions":"Remove meat from slow cooker, shred, and return to slow cooker. Cook for 1 more hour."},{"recipe_directions":"Serve hot. Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"344\nCalories\n\n\n18g \nFat\n\n\n23g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656648-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tLF2JZmqdVHBbuitQWlpif8nWCk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1131362-0395d61464464632b90a8582ef975674.jpg"
@@ -2427,59 +2632,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12827/sauteed-scallops/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Sautéed Scallops</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n2 cloves crushed garlic\n\n\n2 sprigs fresh rosemary\n\n\n1 pound scallops"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n2 cloves crushed garlic\n\n\n2 sprigs fresh rosemary\n\n\n1 pound scallops'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a medium saucepan over medium-high heat; add crushed garlic and whole sprigs of rosemary."},{"recipe_directions":"Place scallops in skillet and cook until golden brown on one side, about 2 to 3 minutes. Turn scallops over and continue to cook until firm and opaque, about 1 or 2 minutes more."},{"recipe_directions":"Remove crushed garlic and rosemary sprigs from the pan before serving."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Scallops"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"409\nCalories\n\n\n25g \nFat\n\n\n7g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656654-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fy95_pYF9liH7ruORmjZooyRTrs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/362677-vegetarian-chickpea-sandwich-filling-Alberta-Rose-1x1-1-e131077da4934ade85613f52bdc0344a.jpg"
@@ -2493,59 +2694,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16715/vegetarian-chickpea-sandwich-filling/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Vegetarian Chickpea Sandwich Filling</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15.5 ounce) can chickpeas, drained and rinsed\n\n\n1 stalk celery, chopped\n\n\n½  onion, chopped\n\n\n1 tablespoon mayonnaise, or to taste\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon dried dill weed\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15.5 ounce) can chickpeas, drained and rinsed\n\n\n1 stalk celery, chopped\n\n\n½  onion, chopped\n\n\n1 tablespoon mayonnaise, or to taste\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon dried dill weed\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mash chickpeas in a medium bowl with a fork. Mix in celery, onion, mayonnaise, lemon juice, and dill until well combined. Season with salt and pepper."},{"recipe_directions":"You can use any raw, chopped vegetable instead of celery."},{"recipe_directions":"You can use your favorite salad dressing instead of mayonnaise."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n6g \nFat\n\n\n44g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656658-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7dYTsV7kXW1Fkn4IhUsfG0jRNzc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1148x0:1150x2):format(webp)/8145753-5f66429f57af4a62aade3adf71dc28d3.jpg"
@@ -2558,59 +2755,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33252/indian-style-sheekh-kabab/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Indian-Style Seekh Kebab</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds lean ground lamb\n\n\n2 medium onions, finely chopped\n\n\n½ cup fresh mint leaves, finely chopped\n\n\n½ cup cilantro, finely chopped\n\n\n1 tablespoon ginger paste\n\n\n1 tablespoon green chile paste\n\n\n2 teaspoons ground cumin\n\n\n2 teaspoons ground coriander\n\n\n2 teaspoons paprika\n\n\n2 teaspoons salt\n\n\n1 teaspoon cayenne pepper\n\n\n8  skewers\n\n\n¼ cup vegetable oil for brushing, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds lean ground lamb\n\n\n2 medium onions, finely chopped\n\n\n½ cup fresh mint leaves, finely chopped\n\n\n½ cup cilantro, finely chopped\n\n\n1 tablespoon ginger paste\n\n\n1 tablespoon green chile paste\n\n\n2 teaspoons ground cumin\n\n\n2 teaspoons ground coriander\n\n\n2 teaspoons paprika\n\n\n2 teaspoons salt\n\n\n1 teaspoon cayenne pepper\n\n\n8  skewers\n\n\n¼ cup vegetable oil for brushing, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix ground lamb, onions, mint, cilantro, ginger paste, and chile paste together in a large bowl. Season with cumin, coriander, paprika, salt, and cayenne. Cover and chill in the refrigerator for 2 hours. Soak skewers in cold water."},{"recipe_directions":"Divide lamb mixture into 8 equal portions; mold portions onto skewers to form a sausage shape. Refrigerate skewers until you are ready to grill."},{"recipe_directions":"Preheat an outdoor grill for high heat and brush the grate liberally with oil."},{"recipe_directions":"Cook skewers on the preheated grill, turning frequently, until nicely browned on all sides and meat is no longer pink in the center, about 10 minutes. An instant-read thermometer inserted into the center should read at least 160 degrees F (71 degrees C)."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of vegetable oil. The actual amount of oil consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Indian"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n23g \nFat\n\n\n6g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656664-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HYK-ooWlyx3KVfP3DVRNTEfptxw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/12737-scott-ures-clams-and-garlicddmfs-beauty-3x4-554d8eca8aea404d9e5dc7618fdefe74.jpg"
@@ -2624,59 +2817,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12737/scott-ures-clams-and-garlic/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Scott Ure's Clams and Garlic</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"50 small clams in shell, scrubbed\n\n\n2 tablespoons extra virgin olive oil\n\n\n6 cloves garlic, minced\n\n\n1 cup white wine\n\n\n2 tablespoons butter\n\n\n½ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '50 small clams in shell, scrubbed\n\n\n2 tablespoons extra virgin olive oil\n\n\n6 cloves garlic, minced\n\n\n1 cup white wine\n\n\n2 tablespoons butter\n\n\n½ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Wash clams to remove any dirt or sand."},{"recipe_directions":"Heat oil in a large pot over medium heat. Sauté garlic in hot oil until tender, about 1 minute."},{"recipe_directions":"Pour in white wine; bring to a boil. Cook until wine is reduced by half."},{"recipe_directions":"Add clams, cover the pot, and steam just until clams start to open. Add butter, cover the pot, and continue cooking until most or all of the clams open. Discard any clams that do not open."},{"recipe_directions":"Transfer clams and broth to 2 large bowls. Sprinkle with chopped parsley and serve."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Clams"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"688\nCalories\n\n\n30g \nFat\n\n\n19g \nCarbs\n\n\n62g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656670-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/O8zCIqtODCIF7HxLwJxqI2Hdynw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2033x1270:2035x1272):format(webp)/257530-Scrambled-Eggs-in-a-Mug-DDMFS-4x3-7-330a17f33cb9490b89f93943e89d54ad.jpg"
@@ -2690,59 +2879,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257530/scrambled-eggs-in-a-mug/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Scrambled Eggs in a Mug</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n1 tablespoon milk\n\n\n1 pinch ground black pepper (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n1 tablespoon milk\n\n\n1 pinch ground black pepper (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Crack egg into a microwave-safe mug; beat until even in color."},{"recipe_directions":"Pour in milk and beat until light yellow in color."},{"recipe_directions":"Microwave on high until cooked through and fluffy, about 90 seconds. Season with pepper and serve."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"82\nCalories\n\n\n5g \nFat\n\n\n2g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656675-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j7fkHW0OHM8oeYyWQosgIM5S5gU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6785531-grilled-marinated-shrimp-Pat-J-1x1-1-3069b253b7ab43be9eafb468f96d2eec.jpg"
@@ -2756,59 +2941,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19484/grilled-marinated-shrimp/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Grilled Marinated Shrimp</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup olive oil\n\n\n¼ cup chopped fresh parsley\n\n\n1  lemon, juiced\n\n\n2 tablespoons hot pepper sauce\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon tomato paste\n\n\n2 teaspoons dried oregano\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n2 pounds large shrimp, peeled and deveined with tails attached\n\n\n6  skewers"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup olive oil\n\n\n¼ cup chopped fresh parsley\n\n\n1  lemon, juiced\n\n\n2 tablespoons hot pepper sauce\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon tomato paste\n\n\n2 teaspoons dried oregano\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n2 pounds large shrimp, peeled and deveined with tails attached\n\n\n6  skewers'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk olive oil, parsley, lemon juice, hot pepper sauce, garlic, tomato paste, oregano, salt, and black pepper together in a mixing bowl. Reserve a small amount for basting later. Pour remaining marinade into a large resealable plastic bag; add shrimp, coat with the marinade, squeeze out excess air, and seal the bag. Marinate in the refrigerator for 2 hours."},{"recipe_directions":"Preheat a grill to medium-low heat. Thread shrimp onto skewers, piercing once near the tail and once near the head. Discard marinade."},{"recipe_directions":"Lightly oil the grill grate. Cook shrimp until opaque, about 5 minutes per side, basting frequently with reserved marinade."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"447\nCalories\n\n\n38g \nFat\n\n\n4g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656686-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ONkNBP25KkmSek5fQNTeD3fgc_E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1083281-bcbffd0d7ce04943b4103a8221f9b628.jpg"
@@ -2821,59 +3002,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18870/roast-leg-of-lamb-with-rosemary/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Roast Leg of Lamb with Rosemary</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 20 mins\n\n\nAdditional Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 9 hrs 45 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup honey\n\n\n3 cloves garlic, minced\n\n\n2 tablespoons chopped fresh rosemary\n\n\n2 tablespoons prepared Dijon-style mustard\n\n\n1 teaspoon lemon zest\n\n\n1 teaspoon freshly ground black pepper\n\n\n5 pounds whole leg of lamb\n\n\n1 teaspoon coarse sea salt"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup honey\n\n\n3 cloves garlic, minced\n\n\n2 tablespoons chopped fresh rosemary\n\n\n2 tablespoons prepared Dijon-style mustard\n\n\n1 teaspoon lemon zest\n\n\n1 teaspoon freshly ground black pepper\n\n\n5 pounds whole leg of lamb\n\n\n1 teaspoon coarse sea salt'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix honey, garlic, rosemary, mustard, lemon zest, and pepper together in a small bowl. Place lamb in a flat dish; rub mixture over lamb. Cover with plastic wrap and marinate in the refrigerator 8 hours to overnight."},{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Transfer lamb onto a rack in a roasting pan and sprinkle with salt to taste."},{"recipe_directions":"Bake in the preheated oven for 20 minutes, then reduce heat to 400 degrees F (200 degrees C) and roast for 55 to 60 more minutes for medium rare. An instant-read thermometer inserted into the center should read at least 120 degrees F (50 degrees C). Let lamb rest for about 10 minutes before carving."},{"recipe_directions":"USDA recommends cooking all raw lamb steaks, chops, and roasts to a minimum internal temperature of 145 degrees F (63 degrees C) as measured with a food thermometer before removing meat from the heat source."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Lamb"},{"recipe_tags":"Leg"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"553\nCalories\n\n\n39g \nFat\n\n\n8g \nCarbs\n\n\n41g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656693-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/To8ASTvp6Q8Xs-Mt2ritMhkZUkc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3689616-88334921d24c4235b9be9f3012fcc6dc.jpg"
@@ -2886,59 +3063,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19517/super-grouper/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Super Grouper</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter, melted\n\n\n2 tablespoons lemon juice\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon garlic salt\n\n\n¼ teaspoon ground white pepper\n\n\n¼ teaspoon paprika, divided\n\n\n2 pounds grouper fillets\n\n\n2 tablespoons mayonnaise"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter, melted\n\n\n2 tablespoons lemon juice\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon garlic salt\n\n\n¼ teaspoon ground white pepper\n\n\n¼ teaspoon paprika, divided\n\n\n2 pounds grouper fillets\n\n\n2 tablespoons mayonnaise'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a broiler pan with aluminum foil."},{"recipe_directions":"Combine melted butter and lemon juice in a small bowl. Brush 2 tablespoons butter mixture onto the prepared pan."},{"recipe_directions":"Mix together parsley, garlic salt, white pepper, and 1/8 teaspoon paprika in a small bowl. Sprinkle spice mixture on both sides of fillets and lay them on the prepared pan."},{"recipe_directions":"Bake in the preheated oven until fish flakes easily with a fork, about 10 minutes. Brush fillets with remaining lemon butter and spread with mayonnaise. Sprinkle with remaining 1/8 teaspoon paprika before serving."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Fish"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"465\nCalories\n\n\n31g \nFat\n\n\n1g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656699-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7hsb18mvr5tCgcR-UI8Ec6eY8rg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1313x0:1315x2):format(webp)/9302102-dd61ea9bc96f4c06b6d38c4f339973ef.jpg"
@@ -2951,59 +3124,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261028/low-carb-keto-cheese-taco-shells/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Low-Carb Keto Cheese Taco Shells</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 taco shells"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line two baking sheets with parchment paper or silicone mats."},{"recipe_directions":"Wrap the handle of a wooden spoon with aluminum foil. Balance between two tall cans."},{"recipe_directions":"Spread Cheddar cheese on the prepared baking sheets into four 6-inch circles placed 2 inches apart."},{"recipe_directions":"Bake in the preheated oven until cheese melts and is lightly brown, 6 to 8 minutes. Cool for 2 to 3 minutes. Lift with a spatula and drape over the wrapped wooden handle to make a taco shell shape. Cool until set, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Taco Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"228\nCalories\n\n\n19g \nFat\n\n\n1g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656706-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-7-BZQoW9mZSN4DalVtNXXomj0o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/20045-cabbage-rolls-ii-ddmfs-4X3-0117-ab42229579aa48acb9aef2d6f4451813.jpg"
@@ -3017,59 +3186,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20045/cabbage-rolls-ii/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Easy Cabbage Rolls</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12  leaves cabbage\n\n\n1 pound extra-lean ground beef\n\n\n1 cup cooked white rice\n\n\n1  egg, beaten\n\n\n¼ cup milk\n\n\n¼ cup minced onion\n\n\n1 ¼ teaspoons salt\n\n\n1 ¼ teaspoons ground black pepper\n\n\n1 (8 ounce) can tomato sauce\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon Worcestershire sauce"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12  leaves cabbage\n\n\n1 pound extra-lean ground beef\n\n\n1 cup cooked white rice\n\n\n1  egg, beaten\n\n\n¼ cup milk\n\n\n¼ cup minced onion\n\n\n1 ¼ teaspoons salt\n\n\n1 ¼ teaspoons ground black pepper\n\n\n1 (8 ounce) can tomato sauce\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon Worcestershire sauce'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Boil cabbage leaves for 2 minutes; drain."},{"recipe_directions":"Combine ground beef, cooked rice, egg, milk, onion, salt, and pepper in a large bowl. Spoon about 2 tablespoons of mixture onto each cabbage leaf."},{"recipe_directions":"Bring one end of the cabbage leaf over the mixture, rolling and tucking in the ends to prevent filling from falling out; arrange rolls in a single layer in the slow cooker."},{"recipe_directions":"Mix tomato sauce, brown sugar, lemon juice, and Worcestershire sauce together in a small bowl until combined. Pour over cabbage rolls."},{"recipe_directions":"Cover and cook on Low for 8 to 9 hours."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Stuffed"},{"recipe_tags":"Stuffed Cabbage"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"246\nCalories\n\n\n11g \nFat\n\n\n18g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656714-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tNCnVTaqjL4_cSAO2Fq8WwHT7IQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2285304-e2bb812021b74bfbba32066c402e2ec2.jpg"
@@ -3082,59 +3247,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242268/easy-gluten-free-macaroni-and-cheese/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Easy Gluten-Free Macaroni and Cheese</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 ounces gluten-free elbow pasta\n\n\n¼ cup butter\n\n\n1 ¼ teaspoons salt\n\n\n¾ teaspoon mustard powder\n\n\n4 cups milk\n\n\n¼ cup cornstarch\n\n\n4 cups shredded Cheddar cheese, divided"},{"recipe_ingredients":"2  gluten-free bread slices, toasted and broken into crumbs (Optional)\n\n\n1 teaspoon butter, softened (Optional)\n\n\n½ teaspoon paprika (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 ounces gluten-free elbow pasta\n\n\n¼ cup butter\n\n\n1 ¼ teaspoons salt\n\n\n¾ teaspoon mustard powder\n\n\n4 cups milk\n\n\n¼ cup cornstarch\n\n\n4 cups shredded Cheddar cheese, divided'}, {'recipe_ingredients': '2  gluten-free bread slices, toasted and broken into crumbs (Optional)\n\n\n1 teaspoon butter, softened (Optional)\n\n\n½ teaspoon paprika (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease a 9x13-inch baking dish."},{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook elbow macaroni in the boiling water, stirring occasionally until cooked through but firm to the bite, 8 minutes. Drain."},{"recipe_directions":"Melt 1/4 cup butter in a saucepan over medium heat. Stir salt and mustard powder into melted butter; remove from heat and set aside."},{"recipe_directions":"Whisk milk and cornstarch together in a bowl until smooth; stir into butter mixture until well blended. Return saucepan to stove; cook milk mixture, stirring constantly, over medium heat until sauce is thickened, about 5 minutes. Remove saucepan from heat."},{"recipe_directions":"Stir 3 cups Cheddar cheese into sauce until the heat from sauce melts cheese. Add pasta to cheese sauce and stir well; pour into the prepared baking dish."},{"recipe_directions":"Combine remaining 1 cup Cheddar cheese, gluten-free bread crumbs, 1 teaspoon butter, and paprika in a bowl; sprinkle over pasta mixture."},{"recipe_directions":"Bake in the preheated oven until top is crunchy, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Macaroni and Cheese Recipes"},{"recipe_tags":"Baked Macaroni and Cheese Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"483\nCalories\n\n\n28g \nFat\n\n\n38g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656721-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -3148,59 +3309,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/80398/serbian-cevapcici/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Serbian Ćevapčići</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds ground pork\n\n\n1 pound lean ground beef\n\n\n½ pound ground lamb\n\n\n1  egg white\n\n\n4 cloves garlic, minced\n\n\n2 teaspoons ground black pepper\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon cayenne pepper\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds ground pork\n\n\n1 pound lean ground beef\n\n\n½ pound ground lamb\n\n\n1  egg white\n\n\n4 cloves garlic, minced\n\n\n2 teaspoons ground black pepper\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon cayenne pepper\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Combine ground pork, ground beef, ground lamb, and egg white in a large bowl."},{"recipe_directions":"Add garlic, black pepper, salt, baking soda, cayenne pepper, and paprika. Mix well using your hands; form into finger-length sausages about 3/4-inch thick."},{"recipe_directions":"Cook sausages on the preheated grill, turning occasionally, until no longer pink in the center, about 30 minutes. An instant-read thermometer inserted into the center should read 160 degrees F (70 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"},{"recipe_tags":"Ground Pork Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"690\nCalories\n\n\n46g \nFat\n\n\n2g \nCarbs\n\n\n63g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656728-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jeEo8yAMB7vZND-ZF25E5Lv5s8Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/21736-PanSearedSalmon-ddmfs-Step4-0349-7f86294cb2bf420fa99f4dea30922492.jpg"
@@ -3214,59 +3371,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21736/pan-seared-salmon-i/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Pan-Seared Salmon</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 (6 ounce) fillets salmon\n\n\n2 tablespoons olive oil\n\n\n2 tablespoons capers\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n4 slices  lemon"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 (6 ounce) fillets salmon\n\n\n2 tablespoons olive oil\n\n\n2 tablespoons capers\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n4 slices  lemon'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a large heavy skillet over medium heat for 3 minutes."},{"recipe_directions":"Coat salmon fillets with olive oil; place skin-side down in the preheated skillet and increase heat to high."},{"recipe_directions":"Sprinkle with capers, salt, and pepper; cook for 3 minutes on one side. Turn salmon fillets over; continue to cook until salmon flakes easily with a fork, about 5 minutes."},{"recipe_directions":"Transfer salmon to individual plates and garnish with lemon slices."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Seafood Main Dishes"},{"recipe_tags":"Salmon"},{"recipe_tags":"Salmon Fillet Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"371\nCalories\n\n\n25g \nFat\n\n\n2g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656734-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QqsH7e1AYIT6pjzWA_zUlEPmHL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/724943-broiled-scallops-Spunky-Buddy-1x1-1-3a57c176748f4c7a8205f9c06c156e83.jpg"
@@ -3280,59 +3433,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12798/broiled-scallops/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Broiled Scallops</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n6 mins\n\n\nTotal Time:\n11 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds bay scallops\n\n\n2 tablespoons melted butter, or as needed\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds bay scallops\n\n\n2 tablespoons melted butter, or as needed\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the broiler to high heat."},{"recipe_directions":"Rinse scallops and place in a shallow baking pan. Sprinkle with 2 tablespoons melted butter, lemon juice, and garlic salt."},{"recipe_directions":"Broil in the preheated broiler until scallops begin to turn golden, 6 to 8 minutes. Remove from the oven and serve with extra melted butter on the side for dipping."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shellfish"},{"recipe_tags":"Scallops"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"273\nCalories\n\n\n9g \nFat\n\n\n7g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656741-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QaywMFlqSfih2lOAnE6hCSt_kR0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/261026_UltimateLowCarbZucchiniLasagne_MFS_182-1-4x3-8f5ac12a01144605b27e50476cad27a6.jpg"
@@ -3346,59 +3495,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261026/ultimate-low-carb-zucchini-lasagna/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Ultimate Low-Carb Zucchini Lasagna</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n1 8-inch baking dish"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 ½ large zucchinis, thinly sliced lengthwise\n\n\n1 tablespoon olive oil\n\n\n1 pound ground beef\n\n\n1 ½ cups low-carb marinara sauce\n\n\n2 teaspoons salt, divided\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon ground black pepper\n\n\n1 (8 ounce) container ricotta cheese\n\n\n1 large egg\n\n\n½ teaspoon ground nutmeg\n\n\n2 cups shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n  aluminum foil"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 ½ large zucchinis, thinly sliced lengthwise\n\n\n1 tablespoon olive oil\n\n\n1 pound ground beef\n\n\n1 ½ cups low-carb marinara sauce\n\n\n2 teaspoons salt, divided\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon ground black pepper\n\n\n1 (8 ounce) container ricotta cheese\n\n\n1 large egg\n\n\n½ teaspoon ground nutmeg\n\n\n2 cups shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n  aluminum foil'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease an 8-inch baking dish with cooking spray."},{"recipe_directions":"Pat dry zucchini slices with a paper towel to remove excess moisture. Set aside."},{"recipe_directions":"Heat olive oil in a saucepan over medium-high heat. Add ground beef; cook until browned, 5 to 8 minutes."},{"recipe_directions":"Add marinara sauce, 1 teaspoon salt, oregano, and pepper; simmer for 10 minutes. Set aside."},{"recipe_directions":"Combine ricotta cheese, egg, 1 teaspoon salt, and nutmeg in a bowl; mix well. Set aside."},{"recipe_directions":"Arrange one layer of zucchini slices in the prepared baking dish. Cover with 1/2 of the sauce. Add another layer of zucchini slices. Spread ricotta mixture on top. Sprinkle with 1/2 of the mozzarella cheese. Add another layer of zucchini slices; cover with remaining sauce and top with remaining mozzarella cheese and Parmesan cheese. Cover the baking dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven for 30 minutes. Remove aluminum foil and bake until top is golden, about 15 minutes more."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Main Dishes"},{"recipe_tags":"Pasta"},{"recipe_tags":"Lasagna Recipes"},{"recipe_tags":"Zucchini Lasagna Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n27g \nFat\n\n\n15g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656747-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7ABmZ3HOmRAFGn_ZsjXBUBLZ_04=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9368334-8caa713e66ab4c85927bd9cc0daae60a.jpg"
@@ -3411,59 +3556,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230620/mayo-chicken/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Mayo Chicken</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  whole chicken, cut into 6 pieces\n\n\n1 cup mayonnaise\n\n\n2 cloves garlic, crushed\n\n\n1 tablespoon finely chopped fresh rosemary\n\n\n1 teaspoon salt\n\n\n  freshly ground black pepper to taste\n\n\n½ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  whole chicken, cut into 6 pieces\n\n\n1 cup mayonnaise\n\n\n2 cloves garlic, crushed\n\n\n1 tablespoon finely chopped fresh rosemary\n\n\n1 teaspoon salt\n\n\n  freshly ground black pepper to taste\n\n\n½ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place chicken pieces into a 9x13-inch baking dish. Stir together mayonnaise, garlic, rosemary, salt, and black pepper in a bowl. Spread mayonnaise mixture over chicken; top with Parmesan cheese."},{"recipe_directions":"Bake in the preheated oven until no longer pink in the center and the juices run clear, about 1 hour and 10 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Whole Chicken Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"579\nCalories\n\n\n48g \nFat\n\n\n2g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656753-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QQB-DaoV4KQTqkFZ52n78wox76g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(424x0:426x2):format(webp)/2273713-chakchouka-shakshouka-lucy-1x1-1-a05f8534ec944c77b294538d0fc6b6d2.jpg"
@@ -3477,59 +3618,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213717/chakchouka-shakshouka/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Chakchouka (Shakshouka)</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n1 ⅓ cups chopped onion\n\n\n1 cup thinly sliced bell peppers, any color\n\n\n2 cloves garlic, minced, or to taste\n\n\n2 ½ cups chopped tomatoes\n\n\n1  hot chile pepper, seeded and finely chopped, or to taste\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon salt\n\n\n4 large eggs"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n1 ⅓ cups chopped onion\n\n\n1 cup thinly sliced bell peppers, any color\n\n\n2 cloves garlic, minced, or to taste\n\n\n2 ½ cups chopped tomatoes\n\n\n1  hot chile pepper, seeded and finely chopped, or to taste\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon salt\n\n\n4 large eggs'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Stir in onion, bell pepper, and garlic; cook and stir until vegetables have softened and onion has turned translucent, about 5 minutes."},{"recipe_directions":"Meanwhile, mix together tomatoes, chile pepper, cumin, paprika, and salt in a bowl."},{"recipe_directions":"Stir tomato mixture into onion mixture. Simmer, uncovered, until tomato juices have cooked off, about 10 minutes."},{"recipe_directions":"Make 4 indentations in tomato mixture; crack eggs into indentations. Cover the skillet and cook until eggs are firm but not dry, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n15g \nFat\n\n\n13g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656758-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HAIoswXIIPp_l4Z33h9NUU5j_b8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2436180-pesto-spaghetti-squash-Allrecipes-Magazine-4x3-1-efcb667604214b89be9dc1335ac4584f.jpg"
@@ -3543,59 +3680,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231457/pesto-spaghetti-squash/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Pesto Spaghetti Squash</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  spaghetti squash, halved lengthwise and seeded\n\n\n3 tablespoons butter, divided\n\n\n1  onion, sliced\n\n\n1 cup kale, stems removed and leaves chopped\n\n\n4  white mushrooms, sliced\n\n\n1 teaspoon garlic salt\n\n\n1 teaspoon Italian seasoning\n\n\n1 teaspoon red pepper flakes\n\n\n1 teaspoon olive oil\n\n\n2 tablespoons prepared pesto\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  spaghetti squash, halved lengthwise and seeded\n\n\n3 tablespoons butter, divided\n\n\n1  onion, sliced\n\n\n1 cup kale, stems removed and leaves chopped\n\n\n4  white mushrooms, sliced\n\n\n1 teaspoon garlic salt\n\n\n1 teaspoon Italian seasoning\n\n\n1 teaspoon red pepper flakes\n\n\n1 teaspoon olive oil\n\n\n2 tablespoons prepared pesto\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Grease a baking sheet."},{"recipe_directions":"Place squash skin-side down on prepared baking sheet. Bake until cooked through, about 1 hour. Remove from oven; cool for 10 minutes. Once squash is cool enough to handle, scrape flesh into string-like strands with a fork. Place in a bowl and set aside."},{"recipe_directions":"Melt 1 tablespoon of butter in a large skillet over medium-high heat. Add onion; cook and stir until onion begins to turn translucent. Stir in kale and mushrooms; reduce heat to medium low."},{"recipe_directions":"Stir in squash, remaining 2 tablespoons butter, garlic salt, Italian seasoning, and red pepper flakes; cook for 2 minutes. Remove from stove and place squash mixture in a large bowl."},{"recipe_directions":"Stir olive oil and pesto into the squash mixture. Slowly add grated Parmesan cheese, stirring until evenly mixed."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Winter Squash"},{"recipe_tags":"Spaghetti Squash"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"161\nCalories\n\n\n11g \nFat\n\n\n14g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656763-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/asoBqgoE9-XBJ4J6VLQI_vHLD2I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/14621-beef-pot-roast-DDMFS-4x3-13d65566a0774f4fa99f948381e085ca.jpg"
@@ -3609,59 +3742,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14621/beef-pot-roast/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Beef Pot Roast</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons olive oil\n\n\n4 pounds boneless chuck roast\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n2  bay leaves\n\n\n1 teaspoon salt\n\n\n½ teaspoon freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons olive oil\n\n\n4 pounds boneless chuck roast\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n2  bay leaves\n\n\n1 teaspoon salt\n\n\n½ teaspoon freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Heat a Dutch oven or heavy pot over medium-high heat. Add oil, then sear meat in the center of the pan for 4 minutes. Turn meat over with tongs; sear for 3 to 4 minutes on each side. Remove meat from the pot."},{"recipe_directions":"Arrange onion, garlic, and 1 bay leaf in the bottom of the pan; sprinkle with salt and pepper. Return meat to the pan, place remaining bay leaf on top of meat, and cover."},{"recipe_directions":"Cook in the preheated oven for 30 minutes. Reduce heat to 300 degrees F (150 degrees C) and continue cooking until tender, about 1 1/2 hours. An instant-read thermometer inserted in the thickest part of the roast should read 145 degrees F (65 degrees C)."},{"recipe_directions":"Transfer roast to a platter and let rest for 10 to 15 minutes. Slice and top with onions and gravy."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Beef"},{"recipe_tags":"Pot Roast Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"551\nCalories\n\n\n42g \nFat\n\n\n2g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656770-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9hCx4kWFMfh6yItqqsSc6xRlEms=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/45782-grilled-sea-bass-DDMFS-4x3-01f4cb00dd75490a95fadf81844179a9.jpg"
@@ -3675,59 +3804,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45782/grilled-sea-bass/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Grilled Sea Bass</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ teaspoon garlic powder\n\n\n¼ teaspoon onion powder\n\n\n¼ teaspoon paprika\n\n\n  lemon pepper to taste\n\n\n  sea salt to taste\n\n\n2 pounds sea bass \n\n\n3 tablespoons butter\n\n\n2 large cloves garlic, chopped\n\n\n1 tablespoon chopped Italian flat leaf parsley\n\n\n1 ½ tablespoons extra virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ teaspoon garlic powder\n\n\n¼ teaspoon onion powder\n\n\n¼ teaspoon paprika\n\n\n  lemon pepper to taste\n\n\n  sea salt to taste\n\n\n2 pounds sea bass \n\n\n3 tablespoons butter\n\n\n2 large cloves garlic, chopped\n\n\n1 tablespoon chopped Italian flat leaf parsley\n\n\n1 ½ tablespoons extra virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Perfect grilled sea bass, worthy of your favorite restaurant, is just 40 minutes away. Make sure to bookmark this flavorful and flaky grilled sea bass recipe — you'll come back to it again and again."},{"recipe_directions":"Here's what you'll need to make the best grilled sea bass of your life:"},{"recipe_directions":"Sea Bass\nYou'll need two pounds of sea bass filets. If you can't find them at the grocery store, visit your local fishmonger."},{"recipe_directions":"Spices, Seasonings, and Herbs\nThis flavorful sea bass is seasoned before grilling with garlic powder, onion powder, paprika, lemon pepper, and sea salt. You'll also need two garlic and parsley to infuse the butter that will be brushed onto fish during grilling"},{"recipe_directions":"Butter\nParsley and garlic-infused butter are brushed onto the fish during grilling, resulting in a rich and herbaceous flavor."},{"recipe_directions":"Olive Oil\nBefore serving, you'll drizzle the grilled sea bass with high quality olive oil."},{"recipe_directions":"The full, step-by-step grilled sea bass recipe can be found below — but here's a brief overview of what you can expect:"},{"recipe_directions":"Mix the spices in a bowl, then generously season the fish filets on both sides. Meanwhile, melt the butter, garlic, and parsley in a small saucepan. Set aside and let cool. Grill the seasoned fish for about seven minutes, brush with butter, then flip and grill until cooked and flaky. Drizzle with olive oil before serving."},{"recipe_directions":"This sea bass should be fully cooked in fewer than 15 minutes on a grill set to high heat (seven minutes on each side). An instant read thermometer inserted into the center of the fish should read at least 145 degrees F."},{"recipe_directions":"Sea bass is flaky whitefish with a mild flavor. It has a firm and meaty texture, which means it holds up well to the high heat of the grill."},{"recipe_directions":"We love this grilled sea bass for many reasons, including its versatility. You can pair it with pretty much anything, from light side salads to hearty fried or roasted potatoes. In need of some delicious inspiration? We've got you covered. Explore our collection of Most Popular Dishes for Fish. Here are a few of the standout recipes you'll find:"},{"recipe_directions":"Oven-Roasted Asparagus\nRoasted Red New Potatoes\nSweet Restaurant Slaw"},{"recipe_directions":"Plus, peruse our entire library of Side Dish Recipes."},{"recipe_directions":"Refrigerate grilled sea bass in an airtight container for up to three days. Reheat in the microwave or oven until heated through."},{"recipe_directions":"Yes, you can freeze grilled sea bass. Allow it to cool, then wrap it tightly in storage wrap. Follow the storage wrap with a layer of aluminum foil. Label with a date and freeze for up to two months. Thaw in the fridge overnight or reheat in the oven from frozen."},{"recipe_directions":"\"Delicious, easy, very flavorful,\" according to MRSVANDY. \"I will definitely make it again. I'm not an expert at fish preparation, so this was an experiment! Grilled outside on the snow-covered deck. Served with a zucchini medley.\""},{"recipe_directions":"\"What a wonderful fish recipe,\" says Victoria Binggeli. \"And versatile as well. My local grocery does not carry sea bass often and when it comes in it is usually frozen. I substituted with tilapia. It turned out beautifully.\""},{"recipe_directions":"\"Made it exactly per the recipe and it seriously is THE BEST FISH I've ever made,\" raves GourmetGale. \"Simple and delicious. One thing to keep in mind: Buy fresh, non-farmed raised fish. It makes all the difference in the world.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat grill for high heat."},{"recipe_directions":"In a small bowl, stir together the garlic powder, onion powder, paprika, lemon pepper, and sea salt."},{"recipe_directions":"Sprinkle seasonings onto the fish."},{"recipe_directions":"In a small saucepan over medium heat, melt the butter with the garlic and parsley. Remove from heat when the butter has melted, and set aside."},{"recipe_directions":"Lightly oil grill grate. Grill fish for 7 minutes, then turn and drizzle with butter. Continue cooking for 7 minutes, or until easily flaked with a fork. Drizzle with olive oil before serving."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n12g \nFat\n\n\n1g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656776-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zmmUsa_CgKOAFCLB2lZ0F0YQRIM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(979x1049:981x1051):format(webp)/4520180-baby-spinach-omelet-France-C-4x3-1-49c3c8b869774bc8a71d2c097068ed62.jpg"
@@ -3741,59 +3866,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/69471/baby-spinach-omelet/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Baby Spinach Omelet</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs\n\n\n1 cup torn baby spinach leaves\n\n\n1 ½ tablespoons grated Parmesan cheese\n\n\n¼ teaspoon onion powder\n\n\n⅛ teaspoon ground nutmeg\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs\n\n\n1 cup torn baby spinach leaves\n\n\n1 ½ tablespoons grated Parmesan cheese\n\n\n¼ teaspoon onion powder\n\n\n⅛ teaspoon ground nutmeg\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs in a bowl, and stir in baby spinach and Parmesan cheese. Season with onion powder, nutmeg, salt, and pepper."},{"recipe_directions":"Spray a small skillet with cooking spray and place over medium heat. Once warm, add in the egg mixture and cook until partially set, about 3 minutes. Flip with a spatula, and continue cooking, 2 to 3 minutes."},{"recipe_directions":"Reduce heat to low and continue cooking, 2 to 3 minutes, or until omelet reaches desired doneness."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Omelet Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"186\nCalories\n\n\n12g \nFat\n\n\n3g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656781-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0t9mXmy3SSB7Buon-0JbsQTeRr4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1023331-sirloin-steak-with-garlic-butter-Cindy-Capps-Lepp-1x1-1-163c35fb36274d4d8c2456e829f3801a.jpg"
@@ -3807,59 +3928,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14554/sirloin-steak-with-garlic-butter/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sirloin Steak with Garlic Butter</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter\n\n\n4 cloves garlic, minced\n\n\n2 teaspoons garlic powder\n\n\n4 pounds beef top sirloin steaks\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter\n\n\n4 cloves garlic, minced\n\n\n2 teaspoons garlic powder\n\n\n4 pounds beef top sirloin steaks\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for high heat and lightly oil the grate."},{"recipe_directions":"Melt butter in a small saucepan over medium-low heat; stir in minced garlic and garlic powder. Set aside."},{"recipe_directions":"Season both sides of each steak with salt and pepper."},{"recipe_directions":"Place steaks on preheated grill and cook 4 to 5 minutes per side. An instant-read thermometer inserted into the center should read 140 degrees F (60 degrees C) for medium doneness."},{"recipe_directions":"Transfer steaks to warmed plates; brush the tops liberally with garlic butter and allow to rest for 2 to 3 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Beef"},{"recipe_tags":"Steaks"},{"recipe_tags":"Sirloin Steak Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"453\nCalories\n\n\n32g \nFat\n\n\n1g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656786-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tBPqoAHipzxyNSo5bXIbAISYE1s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/rosemary-braised-lamb-shanks-2000-8b88e6ae9f344731ab508e97e232487d.jpg"
@@ -3873,59 +3990,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/36927/rosemary-braised-lamb-shanks/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Rosemary Braised Lamb Shanks</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 5 mins\n\n\nTotal Time:\n 3 hrs 25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  lamb shanks\n\n\n  salt and pepper to taste\n\n\n2 tablespoons olive oil\n\n\n3 large carrots, cut into 1/4 inch rounds\n\n\n2  onions, chopped\n\n\n10 cloves garlic, minced\n\n\n1 (750 milliliter) bottle red wine\n\n\n1 (28 ounce) can whole peeled tomatoes with juice\n\n\n1 (10.5 ounce) can condensed chicken broth\n\n\n1 (10.5 ounce) can beef broth\n\n\n5 teaspoons chopped fresh rosemary\n\n\n2 teaspoons chopped fresh thyme"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  lamb shanks\n\n\n  salt and pepper to taste\n\n\n2 tablespoons olive oil\n\n\n3 large carrots, cut into 1/4 inch rounds\n\n\n2  onions, chopped\n\n\n10 cloves garlic, minced\n\n\n1 (750 milliliter) bottle red wine\n\n\n1 (28 ounce) can whole peeled tomatoes with juice\n\n\n1 (10.5 ounce) can condensed chicken broth\n\n\n1 (10.5 ounce) can beef broth\n\n\n5 teaspoons chopped fresh rosemary\n\n\n2 teaspoons chopped fresh thyme'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Full of irresistible rosemary flavor, this lamb shank recipe ensures tender and juicy meat every time."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"The shank is a cut from the shin of the lamb. Connective tissue makes the cut extremely flavorful, but it can make the meat tough if it’s not prepared properly. For a tender texture that practically melts in your mouth, lamb shanks need to be cooked low and slow."},{"recipe_directions":"These are the ingredients you’ll need to make these impressive lamb shanks at home:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make this top-rated lamb shanks recipe:"},{"recipe_directions":"Wondering what goes well with lamb shanks? We’ve got you covered with our collection of Flavor-Packed Side Dishes for Lamb. Here are a few of the tasty recipes that are featured:"},{"recipe_directions":"If you have leftovers, store them in an airtight container in the refrigerator for up to three days. Reheat in the oven."},{"recipe_directions":"“Restaurant quality,” according to Patty Preston Anderson. “Everyone was blown away by how delicious this was. The only thing I did differently was add a little cornstarch slurry to the pot at the end to help thicken the sauce.”"},{"recipe_directions":"“We raise lamb and shank is my favorite lamb dish,” says FarmerEd. “I smoked the shanks for about 3 hours to give a little more depth of flavor. Easy to make, I will do it again for sure.”"},{"recipe_directions":"“It was easy to put together and had great flavor,” raves Mother Ann. “I used a can of diced tomatoes because I did not have whole ones. The shanks came out tender, flavorful, and fall-off-the-bone perfect! My house smelled heavenly while they were cooking.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Season lamb shanks with salt and pepper."},{"recipe_directions":"Heat oil in a large, heavy pot or Dutch oven over medium-high heat. Working in batches, cook shanks until brown on all sides, about 8 minutes. Transfer shanks to a plate; set aside."},{"recipe_directions":"Add carrots, onions, and garlic to the pot and sauté over medium heat until golden brown, about 10 minutes. Stir in wine, tomatoes, chicken broth, beef broth, rosemary, and thyme."},{"recipe_directions":"Return shanks to the pot, pressing down to submerge. Bring to a boil, then reduce heat to medium-low. Cover and simmer until meat is tender, about 2 hours."},{"recipe_directions":"Remove the lid and simmer to allow flavors to concentrate, about 20 minutes. Transfer shanks to a platter; cover with foil to keep warm. Continue boiling sauce until thickened, about 15 minutes. Spoon sauce over shanks before serving."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Lamb"},{"recipe_tags":"Shanks"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"481\nCalories\n\n\n22g \nFat\n\n\n18g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656792-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ak0uNYAPa8oitkLTx49omYOwzeg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4538204-blackened-chicken-Carrie-C-1x1-1-98b6e36ae4e848b3971753eaeee7ac12.jpg"
@@ -3939,59 +4052,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8571/blackened-chicken/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Blackened Chicken</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 chicken breast halves"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ teaspoon paprika\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ teaspoon ground cumin\n\n\n¼ teaspoon dried thyme\n\n\n⅛ teaspoon onion powder\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n2  skinless, boneless chicken breast halves\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ teaspoon paprika\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ teaspoon ground cumin\n\n\n¼ teaspoon dried thyme\n\n\n⅛ teaspoon onion powder\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n2  skinless, boneless chicken breast halves\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spray a baking sheet with cooking spray."},{"recipe_directions":"Heat a cast-iron skillet over high heat until it is smoking hot, about 5 minutes."},{"recipe_directions":"While the skillet is heating, mix together paprika, cayenne, cumin, thyme, onion powder, white pepper, and salt in a small bowl. Spray chicken breasts on both sides with cooking spray, then coat evenly with spice mixture."},{"recipe_directions":"Place chicken in the hot pan and cook for 1 minute. Turn, and cook 1 minute on other side. Transfer chicken to the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until chicken is no longer pink in the center and the juices run clear, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Baked and Roasted"},{"recipe_tags":"Chicken Breast"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"135\nCalories\n\n\n3g \nFat\n\n\n1g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656797-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/z1txBI7Z5OUBMoRMVpTc7a68_U0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4x3-GOLDMAN_ALR0323_InSeason_CabbageCups_1522-5988fa508f5141bc95f95add5e99200a.jpg"
@@ -4005,59 +4114,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278397/asian-style-ground-beef-cabbage-wraps/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Asian-Style Ground Beef Cabbage Wraps</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 cup diced fresh mushrooms\n\n\n½ cup diced onion\n\n\n3 tablespoons coconut aminos (soy-free seasoning sauce)\n\n\n2 teaspoons Sriracha sauce, or to taste\n\n\n2 teaspoons minced fresh ginger\n\n\n1 large clove garlic, minced\n\n\n1 teaspoon rice vinegar, or to taste\n\n\n1 teaspoon sesame oil\n\n\n  salt and ground black pepper to taste\n\n\n8 leaves cabbage\n\n\n½ cup matchstick-cut carrots\n\n\n3  green onions, thinly sliced\n\n\n8 sprigs cilantro, or to taste (Optional)\n\n\n1 pinch sesame seeds (Optional)\n\n\n1 pinch red pepper flakes (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 cup diced fresh mushrooms\n\n\n½ cup diced onion\n\n\n3 tablespoons coconut aminos (soy-free seasoning sauce)\n\n\n2 teaspoons Sriracha sauce, or to taste\n\n\n2 teaspoons minced fresh ginger\n\n\n1 large clove garlic, minced\n\n\n1 teaspoon rice vinegar, or to taste\n\n\n1 teaspoon sesame oil\n\n\n  salt and ground black pepper to taste\n\n\n8 leaves cabbage\n\n\n½ cup matchstick-cut carrots\n\n\n3  green onions, thinly sliced\n\n\n8 sprigs cilantro, or to taste (Optional)\n\n\n1 pinch sesame seeds (Optional)\n\n\n1 pinch red pepper flakes (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook ground beef in the hot skillet, breaking up any large clumps, until browned and crumbly, about 5 minutes. Add mushrooms and onion; cook and stir until vegetables soften, about 4 minutes."},{"recipe_directions":"Add coconut aminos, Sriracha sauce, ginger, garlic, and vinegar. Cook, stirring occasionally, until most of the liquid has evaporated, about 10 minutes. Remove from heat and stir in sesame oil. Season with salt and pepper."},{"recipe_directions":"Evenly divide mixture among 8 cabbage leaves; sprinkle carrots and onions on top. Sprinkle green onions, cilantro, sesame seeds, and red pepper flakes on top. Roll each cabbage leaf over and around filling to form a packet."},{"recipe_directions":"This recipe appears as \"Sriracha Beef Cabbage Cups\" in Allrecipes Magazine."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Low-Carb"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwiches and Wraps"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"283\nCalories\n\n\n15g \nFat\n\n\n11g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656803-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1696/healthy-recipes/gluten-free/main-dishes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r6g3axE008PFNmCvdmnlIa4RMm0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/402890-prize-winning-baby-back-ribs-AlbertaRose-4x3-fb8325f10408404599d21a495551435d.jpg"
@@ -4071,42 +4176,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14539/prize-winning-baby-back-ribs/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Prize-Winning Baby Back Ribs</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon ground cumin\n\n\n1 tablespoon chili powder\n\n\n1 tablespoon paprika\n\n\n  salt and pepper to taste\n\n\n3 pounds baby back pork ribs\n\n\n1 cup barbeque sauce"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon ground cumin\n\n\n1 tablespoon chili powder\n\n\n1 tablespoon paprika\n\n\n  salt and pepper to taste\n\n\n3 pounds baby back pork ribs\n\n\n1 cup barbeque sauce'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cooking ribs on the grill is easier than you think. Learn how to perfectly grill baby back ribs every time with this foolproof recipe!"},{"recipe_directions":"Wondering how to grill baby back ribs? You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make baby back ribs on the grill:"},{"recipe_directions":"This grilled baby back rib recipe calls for a savory homemade spice rub made with cumin, chili powder, paprika, salt, and pepper."},{"recipe_directions":"It should take about an hour to perfectly cook these baby back ribs on the grill. You’ll know the ribs are done when an instant read thermometer inserted into the center reads 145 degrees F (63 degrees C)."},{"recipe_directions":"If you’re looking for mouthwatering serving inspiration, we’ve got you covered. Explore our collection of 13 Delicious Side Dishes for Ribs for crowd-pleasing pairing ideas. Here are a few of the top-rated recipes you’ll find:"},{"recipe_directions":"Store your leftover baby back ribs in an airtight container for up to four days. Reheat the ribs in the oven, on the grill, in an air fryer, or (in a pinch) in the microwave."},{"recipe_directions":"“This is a foolproof recipe,” according to Charles Nguyen. “Easy to find ingredients, simply get an excellent quality rib, pair it with your favorite bbq sauce and voilà!”"},{"recipe_directions":"“Absolutely fantastic,” raves Adam Brown. “You can play with the spice mix, but if you follow the cooking directions, you’ll have ribs with meat falling off the bones.”"},{"recipe_directions":"“The rub itself is absolutely amazing,” according to Mosey. “Top it off with my favorite BBQ sauce...heaven! Best ribs I've had in a long time!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat a gas grill for high heat, or arrange charcoal briquettes on one side of the barbeque. Lightly oil the grate."},{"recipe_directions":"Combine cumin, chili powder, paprika, salt, and pepper in a small jar; close the lid and shake to mix."},{"recipe_directions":"Trim the membrane sheath from the back of each rack. Run a small, sharp knife between the membrane and each rib, and snip off the membrane as much as possible. Sprinkle as much of the rub onto both sides of ribs as desired. To prevent ribs from becoming too dark and spicy, do not thoroughly rub spices into ribs. Store any unused spice mix in a jar for future use."},{"recipe_directions":"Place aluminum foil on the lower rack to capture drippings and prevent flare-ups. Lay ribs on the top rack of the grill (away from the coals, if you're using briquettes). Reduce gas heat to low and close the lid; cook ribs, undisturbed as possible, until meat pulls away easily from the bone, about 1 hour. An instant-read thermometer inserted into the center should read 145 degrees F (63 degrees C)."},{"recipe_directions":"Brush ribs with barbecue sauce, and grill for an additional 5 minutes. Serve ribs as a whole rack, or cut between each rib bone and pile individually on a platter."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of spice mix. The actual amount of spice mix consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"},{"recipe_tags":"Pork Rib Recipes"},{"recipe_tags":"Baby Back Ribs"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n30g \nFat\n\n\n17g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>